--- a/Galaxydps.xlsx
+++ b/Galaxydps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="775">
   <si>
     <t xml:space="preserve">Ship</t>
   </si>
@@ -1246,430 +1246,433 @@
     <t xml:space="preserve">Grim Railgun</t>
   </si>
   <si>
+    <t xml:space="preserve">Fake X-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneall Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystocrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Icy Artillery Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Icy Artillery Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plagued Warship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreadnought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridgebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behemoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naglfar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leviathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andromeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Phaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lazarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armageddon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obliterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneall Auto Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneall Auto Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken Flak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken Multilaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear Catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Naglfar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distorienter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic Wasteland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Andromeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jupiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeletal PDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Cyclops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Alpha Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillak Injector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillak Firewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoka Clave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoka Enclave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Scarab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Leviathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preos Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avellian Spear-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avellian Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Torpedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Ridgebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khapri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avellian Eliminator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frostpocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frosty Super LR Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incarnate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple Heavy Pulse Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Heavy Pulse Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon of Mass Destruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillavik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillavik Decimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillavik Accelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankenemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple Heavy Quantum Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erebus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erebus Decimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erebus Obliterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slipstream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Triple Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Triple Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbadon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaddon Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaddon Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaddon's Arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaddon's Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osiris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Quantum Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azreal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azreal's Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azreal Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azreal Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azreal's Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioaccelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Bioaccelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriotic Gatling Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retro Prototype X-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype Heavy Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype Medium Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber Leviathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple Heavy Quantum Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjugator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Triple Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astraeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siege Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Quad Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Triple Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oblivion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype X-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombardment Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colossus Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colossus Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Drill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucifer's Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucifer's Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Canadian Ice Chisel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Canadian Icebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Siege Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Siege Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Capital Siege Railgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Dual Heavy Railgun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prototype X-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kneall Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystocrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium Icy Artillery Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Icy Artillery Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantum Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plagued Warship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dreadnought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridgebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nemesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behemoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naglfar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leviathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andromeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Phaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avalon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lazarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armageddon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obliterator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kneall Auto Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kneall Auto Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken Flak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken Multilaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear Catalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Naglfar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackgate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telepathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distorienter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic Wasteland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Andromeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jupiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal PDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Cyclops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Alpha Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lillak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lillak Injector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lillak Firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoka Clave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoka Enclave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Scarab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirate Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirate AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Leviathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preos Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avellian Spear-S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avellian Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Torpedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Ridgebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khapri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avellian Eliminator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frostpocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frosty Super LR Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incarnate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple Heavy Pulse Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual Heavy Pulse Rail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon of Mass Destruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zillavik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zillavik Decimator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zillavik Accelerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankenemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple Heavy Quantum Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantum Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erebus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erebus Decimator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erebus Obliterator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slipstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Triple Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Triple Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbadon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abaddon Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abaddon Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abaddon's Arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abaddon's Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osiris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Quantum Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azreal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azreal's Dagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azreal Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azreal Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azreal's Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberrant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioaccelerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Bioaccelerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patriotic Gatling Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retro Prototype X-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype Heavy Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype Medium Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyber Leviathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple Heavy Quantum Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjugator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Triple Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astraeus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siege Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Quad Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Triple Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oblivion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype X-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bombardment Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colossus Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colossus Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Drum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Drill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucifer's Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucifer's Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Canadian Ice Chisel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Canadian Icebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion Siege Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion Siege Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion Capital Siege Railgun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperion Dual Heavy Railgun</t>
   </si>
   <si>
     <t xml:space="preserve">Kneall Obliterator</t>
@@ -2446,7 +2449,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="79">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2466,21 +2469,21 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF637B83"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF618491"/>
         <bgColor rgb="FF5AABCA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5AABCA"/>
-        <bgColor rgb="FF5FBC89"/>
+        <bgColor rgb="FF60BD89"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6ABC82"/>
-        <bgColor rgb="FF6BBE87"/>
+        <fgColor rgb="FF6ABD85"/>
+        <bgColor rgb="FF63BD89"/>
       </patternFill>
     </fill>
     <fill>
@@ -2539,7 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5FBC89"/>
+        <fgColor rgb="FF60BD89"/>
         <bgColor rgb="FF63BD89"/>
       </patternFill>
     </fill>
@@ -2557,26 +2560,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF7B66B"/>
+        <fgColor rgb="FFF7B46B"/>
+        <bgColor rgb="FFF8B86A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9BD6A"/>
-        <bgColor rgb="FFFAC269"/>
+        <bgColor rgb="FFF8B86A"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2A16F"/>
-        <bgColor rgb="FFEF9870"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFF29E70"/>
+        <bgColor rgb="FFF7B46B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAC269"/>
-        <bgColor rgb="FFF9BD6A"/>
+        <bgColor rgb="FFFAC569"/>
       </patternFill>
     </fill>
     <fill>
@@ -2587,8 +2590,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA8273"/>
-        <bgColor rgb="FFEF9870"/>
+        <fgColor rgb="FFEE8D72"/>
+        <bgColor rgb="FFF29E70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2606,55 +2609,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF5FBC89"/>
+        <bgColor rgb="FF60BD89"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF637B83"/>
+        <bgColor rgb="FF618491"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF637B83"/>
+        <fgColor rgb="FF618491"/>
         <bgColor rgb="FF5AABCA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB2CB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF6BBE87"/>
-        <bgColor rgb="FF6ABC82"/>
+        <bgColor rgb="FFAECA79"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF637B83"/>
+        <bgColor rgb="FF618491"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FF63BD89"/>
-        <bgColor rgb="FF5FBC89"/>
+        <bgColor rgb="FF60BD89"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF78C185"/>
-        <bgColor rgb="FF8FC580"/>
+        <fgColor rgb="FF79C285"/>
+        <bgColor rgb="FF90C580"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFF2A16F"/>
+        <bgColor rgb="FFF29E70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2664,27 +2661,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFF2A16F"/>
-        <bgColor rgb="FFEF9870"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF29E70"/>
+        <bgColor rgb="FFEE8D72"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF5FBC89"/>
-        <bgColor rgb="FF63BD89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFCACE74"/>
-        <bgColor rgb="FFBFCC76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6BBE87"/>
-        <bgColor rgb="FF6ABC82"/>
+        <fgColor rgb="FFC9CE75"/>
+        <bgColor rgb="FFBECC77"/>
       </patternFill>
     </fill>
     <fill>
@@ -2701,20 +2686,20 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF78C185"/>
-        <bgColor rgb="FF6BBE87"/>
+        <fgColor rgb="FF79C285"/>
+        <bgColor rgb="FF6ABD85"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF94C580"/>
-        <bgColor rgb="FF8FC580"/>
+        <bgColor rgb="FF90C580"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2D26F"/>
-        <bgColor rgb="FFFDCE67"/>
+        <fgColor rgb="FFE1D270"/>
+        <bgColor rgb="FFC9CE75"/>
       </patternFill>
     </fill>
     <fill>
@@ -2724,21 +2709,21 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2CB78"/>
-        <bgColor rgb="FFB6CB77"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFB5CB78"/>
+        <bgColor rgb="FFAECA79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFB5CB78"/>
+        <bgColor rgb="FFBECC77"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6CB77"/>
-        <bgColor rgb="FFB2CB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFCC76"/>
-        <bgColor rgb="FFB6CB77"/>
+        <fgColor rgb="FFBECC77"/>
+        <bgColor rgb="FFB5CB78"/>
       </patternFill>
     </fill>
     <fill>
@@ -2749,38 +2734,32 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF8FC580"/>
+        <fgColor rgb="FF90C580"/>
+        <bgColor rgb="FF94C580"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BD89"/>
+        <bgColor rgb="FF60BD89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79C285"/>
+        <bgColor rgb="FF6ABD85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC77D"/>
         <bgColor rgb="FF94C580"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFB2CB78"/>
-        <bgColor rgb="FFB6CB77"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF63BD89"/>
-        <bgColor rgb="FF5FBC89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF78C185"/>
-        <bgColor rgb="FF6BBE87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FC77C"/>
-        <bgColor rgb="FF94C580"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFE2D26F"/>
-        <bgColor rgb="FFCACE74"/>
+        <fgColor rgb="FFE1D270"/>
+        <bgColor rgb="FFC9CE75"/>
       </patternFill>
     </fill>
     <fill>
@@ -2802,15 +2781,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFFBC769"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCC868"/>
         <bgColor rgb="FFFCC968"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACE74"/>
-        <bgColor rgb="FFBFCC76"/>
+        <fgColor rgb="FFC9CE75"/>
+        <bgColor rgb="FFBECC77"/>
       </patternFill>
     </fill>
     <fill>
@@ -2820,15 +2799,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF9FC77C"/>
-        <bgColor rgb="FFB2CB78"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAECA79"/>
+        <bgColor rgb="FFB5CB78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBC769"/>
-        <bgColor rgb="FFFCC968"/>
+        <bgColor rgb="FFFCC868"/>
       </patternFill>
     </fill>
     <fill>
@@ -2839,20 +2818,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFF7B66B"/>
-        <bgColor rgb="FFF6B26B"/>
+        <fgColor rgb="FFF7B46B"/>
+        <bgColor rgb="FFF8B86A"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF7B66B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFFBC769"/>
-        <bgColor rgb="FFFAC269"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC569"/>
+        <bgColor rgb="FFFBC769"/>
       </patternFill>
     </fill>
     <fill>
@@ -2874,45 +2847,39 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF94C580"/>
-        <bgColor rgb="FF9FC77C"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF9DC77D"/>
+        <bgColor rgb="FF94C580"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBFCC76"/>
-        <bgColor rgb="FFB6CB77"/>
+        <fgColor rgb="FFBECC77"/>
+        <bgColor rgb="FFB5CB78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FC580"/>
+        <fgColor rgb="FF90C580"/>
         <bgColor rgb="FF94C580"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FFF2A16F"/>
-        <bgColor rgb="FFEF9870"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5CB78"/>
+        <bgColor rgb="FFAECA79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8B86A"/>
+        <bgColor rgb="FFF7B46B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFB6CB77"/>
-        <bgColor rgb="FFB2CB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFF7B66B"/>
-        <bgColor rgb="FFF9BD6A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF9870"/>
-        <bgColor rgb="FFF2A16F"/>
+        <fgColor rgb="FFF29E70"/>
+        <bgColor rgb="FFEE8D72"/>
       </patternFill>
     </fill>
   </fills>
@@ -2957,7 +2924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3103,10 +3070,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3114,23 +3085,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="32" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3138,8 +3101,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="37" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3162,6 +3129,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="42" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3172,14 +3147,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="44" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="32" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="45" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3214,6 +3181,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="53" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3227,14 +3202,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="56" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3254,8 +3221,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="61" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="62" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3270,19 +3245,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="65" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="65" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="66" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3298,47 +3281,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="70" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="71" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="72" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="73" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="74" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="44" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="41" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3378,31 +3325,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="75" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="65" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="61" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="76" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="70" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="35" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="77" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="71" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="78" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="72" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3437,53 +3380,53 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFFDCD67"/>
-      <rgbColor rgb="FFCACE74"/>
+      <rgbColor rgb="FFFDCC67"/>
+      <rgbColor rgb="FFE1D270"/>
       <rgbColor rgb="FFFED266"/>
-      <rgbColor rgb="FF6ABC82"/>
-      <rgbColor rgb="FFF4CCCC"/>
-      <rgbColor rgb="FF8FC580"/>
+      <rgbColor rgb="FF6ABD85"/>
+      <rgbColor rgb="FFFCC968"/>
+      <rgbColor rgb="FFAECA79"/>
       <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FF637B83"/>
-      <rgbColor rgb="FF78C185"/>
-      <rgbColor rgb="FFF6B26B"/>
+      <rgbColor rgb="FF618491"/>
+      <rgbColor rgb="FF79C285"/>
+      <rgbColor rgb="FFF8B86A"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FFFECF67"/>
-      <rgbColor rgb="FFEA8273"/>
-      <rgbColor rgb="FFE2D26F"/>
+      <rgbColor rgb="FFFDCE67"/>
+      <rgbColor rgb="FFEE8D72"/>
+      <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FFFED366"/>
       <rgbColor rgb="FFFF00BF"/>
       <rgbColor rgb="FFFFD567"/>
-      <rgbColor rgb="FFBFCC76"/>
-      <rgbColor rgb="FFFDCC67"/>
-      <rgbColor rgb="FFFDCE67"/>
-      <rgbColor rgb="FFB2CB78"/>
+      <rgbColor rgb="FFC9CE75"/>
+      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FFFDCD67"/>
+      <rgbColor rgb="FFBECC77"/>
       <rgbColor rgb="FFFFD466"/>
-      <rgbColor rgb="FF6BBE87"/>
+      <rgbColor rgb="FF90C580"/>
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFD9EAD3"/>
       <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFEF9870"/>
+      <rgbColor rgb="FFF29E70"/>
       <rgbColor rgb="FFD9D2E9"/>
       <rgbColor rgb="FFFCCA68"/>
-      <rgbColor rgb="FFB6CB77"/>
+      <rgbColor rgb="FFB5CB78"/>
       <rgbColor rgb="FF5AABCA"/>
-      <rgbColor rgb="FF9FC77C"/>
+      <rgbColor rgb="FF9DC77D"/>
       <rgbColor rgb="FFFED166"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFF2A16F"/>
+      <rgbColor rgb="FFF7B46B"/>
       <rgbColor rgb="FF63BD89"/>
       <rgbColor rgb="FF94C580"/>
-      <rgbColor rgb="FFEAD1DC"/>
-      <rgbColor rgb="FF5FBC89"/>
+      <rgbColor rgb="FFFECF67"/>
+      <rgbColor rgb="FF60BD89"/>
       <rgbColor rgb="FFFED167"/>
-      <rgbColor rgb="FFFCC968"/>
+      <rgbColor rgb="FFFCC868"/>
+      <rgbColor rgb="FFFAC269"/>
       <rgbColor rgb="FFF9BD6A"/>
-      <rgbColor rgb="FFF7B66B"/>
-      <rgbColor rgb="FFFAC269"/>
+      <rgbColor rgb="FFFAC569"/>
       <rgbColor rgb="FFFBC769"/>
     </indexedColors>
   </colors>
@@ -3497,25 +3440,26 @@
   </sheetPr>
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A346" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A220" activeCellId="0" sqref="A220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.01"/>
   </cols>
   <sheetData>
@@ -7306,7 +7250,7 @@
       <c r="N31" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="O31" s="36" t="n">
+      <c r="O31" s="5" t="n">
         <v>12</v>
       </c>
       <c r="P31" s="6" t="n">
@@ -7388,7 +7332,7 @@
       <c r="AV31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AW31" s="37" t="s">
+      <c r="AW31" s="36" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7435,7 +7379,7 @@
       <c r="N32" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="O32" s="38" t="n">
+      <c r="O32" s="37" t="n">
         <v>9</v>
       </c>
       <c r="P32" s="6" t="n">
@@ -7517,7 +7461,7 @@
       <c r="AV32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AW32" s="37" t="s">
+      <c r="AW32" s="36" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7693,7 +7637,7 @@
       <c r="N34" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="O34" s="36" t="n">
+      <c r="O34" s="5" t="n">
         <v>13</v>
       </c>
       <c r="P34" s="6" t="n">
@@ -7776,7 +7720,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -8159,7 +8103,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="38" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -8284,7 +8228,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -8457,7 +8401,7 @@
       <c r="N40" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="O40" s="40" t="n">
+      <c r="O40" s="39" t="n">
         <v>26</v>
       </c>
       <c r="P40" s="6" t="n">
@@ -8498,7 +8442,7 @@
       <c r="AC40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD40" s="41" t="n">
+      <c r="AD40" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE40" s="13" t="s">
@@ -8808,7 +8752,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -8935,7 +8879,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>115</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -9064,7 +9008,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="42" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -9179,7 +9123,7 @@
       <c r="AS45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT45" s="44" t="n">
+      <c r="AT45" s="43" t="n">
         <v>609</v>
       </c>
       <c r="AU45" s="1" t="s">
@@ -9193,7 +9137,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="42" t="s">
         <v>117</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -9322,7 +9266,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -9451,7 +9395,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="41" t="s">
         <v>119</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -9538,7 +9482,7 @@
       <c r="AC48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AD48" s="41" t="n">
+      <c r="AD48" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE48" s="13" t="s">
@@ -9715,7 +9659,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -9882,7 +9826,7 @@
       <c r="N51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="46" t="n">
+      <c r="O51" s="45" t="n">
         <v>828</v>
       </c>
       <c r="P51" s="6" t="n">
@@ -10378,7 +10322,7 @@
       <c r="N55" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="O55" s="38" t="n">
+      <c r="O55" s="37" t="n">
         <v>9</v>
       </c>
       <c r="P55" s="6" t="n">
@@ -10505,7 +10449,7 @@
       <c r="N56" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="O56" s="47" t="n">
+      <c r="O56" s="18" t="n">
         <v>8</v>
       </c>
       <c r="P56" s="6" t="n">
@@ -10632,7 +10576,7 @@
       <c r="N57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O57" s="36" t="n">
+      <c r="O57" s="5" t="n">
         <v>12</v>
       </c>
       <c r="P57" s="6" t="n">
@@ -10669,7 +10613,7 @@
       <c r="AC57" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD57" s="41" t="n">
+      <c r="AD57" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE57" s="13" t="s">
@@ -10761,7 +10705,7 @@
       <c r="N58" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="O58" s="48" t="n">
+      <c r="O58" s="46" t="n">
         <v>66</v>
       </c>
       <c r="P58" s="6" t="n">
@@ -10886,7 +10830,7 @@
       <c r="N59" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="O59" s="36" t="n">
+      <c r="O59" s="5" t="n">
         <v>13</v>
       </c>
       <c r="P59" s="6" t="n">
@@ -11013,7 +10957,7 @@
       <c r="N60" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="O60" s="49" t="n">
+      <c r="O60" s="5" t="n">
         <v>14</v>
       </c>
       <c r="P60" s="6" t="n">
@@ -11523,7 +11467,7 @@
       <c r="N64" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="O64" s="50" t="n">
+      <c r="O64" s="47" t="n">
         <v>191</v>
       </c>
       <c r="P64" s="6" t="n">
@@ -11650,7 +11594,7 @@
       <c r="N65" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O65" s="51" t="n">
+      <c r="O65" s="48" t="n">
         <v>96</v>
       </c>
       <c r="P65" s="6" t="n">
@@ -11733,7 +11677,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="38" t="s">
         <v>145</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -11775,7 +11719,7 @@
       <c r="N66" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="O66" s="52" t="n">
+      <c r="O66" s="49" t="n">
         <v>20</v>
       </c>
       <c r="P66" s="6" t="n">
@@ -12033,7 +11977,7 @@
       <c r="N68" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="O68" s="49" t="n">
+      <c r="O68" s="5" t="n">
         <v>14</v>
       </c>
       <c r="P68" s="6" t="n">
@@ -12295,7 +12239,7 @@
       <c r="N70" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="O70" s="53" t="n">
+      <c r="O70" s="50" t="n">
         <v>36</v>
       </c>
       <c r="P70" s="6" t="n">
@@ -12424,7 +12368,7 @@
       <c r="N71" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="O71" s="47" t="n">
+      <c r="O71" s="18" t="n">
         <v>8</v>
       </c>
       <c r="P71" s="6" t="n">
@@ -12555,7 +12499,7 @@
       <c r="N72" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="O72" s="38" t="n">
+      <c r="O72" s="37" t="n">
         <v>10</v>
       </c>
       <c r="P72" s="6" t="n">
@@ -12777,7 +12721,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="51" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -12819,7 +12763,7 @@
       <c r="N74" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="O74" s="49" t="n">
+      <c r="O74" s="5" t="n">
         <v>15</v>
       </c>
       <c r="P74" s="6" t="n">
@@ -12910,7 +12854,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="41" t="s">
         <v>154</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -13035,7 +12979,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -13162,7 +13106,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -13289,7 +13233,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="41" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -13418,7 +13362,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>158</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -13547,7 +13491,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -13890,7 +13834,7 @@
       <c r="AC82" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AD82" s="41" t="n">
+      <c r="AD82" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE82" s="13" t="s">
@@ -13938,7 +13882,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="42" t="s">
         <v>166</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -14289,7 +14233,7 @@
       <c r="AC85" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="AD85" s="41" t="n">
+      <c r="AD85" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE85" s="13" t="s">
@@ -14465,7 +14409,7 @@
       <c r="AV86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AW86" s="55" t="s">
+      <c r="AW86" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14512,7 +14456,7 @@
       <c r="N87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O87" s="56" t="n">
+      <c r="O87" s="53" t="n">
         <v>83</v>
       </c>
       <c r="P87" s="6" t="n">
@@ -14549,7 +14493,7 @@
       <c r="AC87" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD87" s="41" t="n">
+      <c r="AD87" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE87" s="13" t="s">
@@ -14641,7 +14585,7 @@
       <c r="N88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O88" s="53" t="n">
+      <c r="O88" s="50" t="n">
         <v>38</v>
       </c>
       <c r="P88" s="6" t="n">
@@ -14766,7 +14710,7 @@
       <c r="N89" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="O89" s="57" t="n">
+      <c r="O89" s="54" t="n">
         <v>131</v>
       </c>
       <c r="P89" s="6" t="n">
@@ -14893,7 +14837,7 @@
       <c r="N90" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="O90" s="58" t="n">
+      <c r="O90" s="55" t="n">
         <v>52</v>
       </c>
       <c r="P90" s="6" t="n">
@@ -15020,7 +14964,7 @@
       <c r="N91" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="O91" s="51" t="n">
+      <c r="O91" s="48" t="n">
         <v>94</v>
       </c>
       <c r="P91" s="6" t="n">
@@ -15149,7 +15093,7 @@
       <c r="N92" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="O92" s="59" t="n">
+      <c r="O92" s="56" t="n">
         <v>58</v>
       </c>
       <c r="P92" s="6" t="n">
@@ -15190,7 +15134,7 @@
       <c r="AC92" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD92" s="41" t="n">
+      <c r="AD92" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE92" s="13" t="s">
@@ -15282,7 +15226,7 @@
       <c r="N93" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="O93" s="60" t="n">
+      <c r="O93" s="57" t="n">
         <v>61</v>
       </c>
       <c r="P93" s="6" t="n">
@@ -15409,7 +15353,7 @@
       <c r="N94" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="O94" s="60" t="n">
+      <c r="O94" s="57" t="n">
         <v>63</v>
       </c>
       <c r="P94" s="6" t="n">
@@ -15536,7 +15480,7 @@
       <c r="N95" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O95" s="61" t="n">
+      <c r="O95" s="58" t="n">
         <v>151</v>
       </c>
       <c r="P95" s="6" t="n">
@@ -15661,7 +15605,7 @@
       <c r="N96" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="O96" s="40" t="n">
+      <c r="O96" s="39" t="n">
         <v>25</v>
       </c>
       <c r="P96" s="6" t="n">
@@ -15702,7 +15646,7 @@
       <c r="AC96" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD96" s="41" t="n">
+      <c r="AD96" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE96" s="13" t="s">
@@ -15792,7 +15736,7 @@
       <c r="N97" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="O97" s="62" t="n">
+      <c r="O97" s="59" t="n">
         <v>34</v>
       </c>
       <c r="P97" s="6" t="n">
@@ -15919,7 +15863,7 @@
       <c r="N98" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="O98" s="63" t="n">
+      <c r="O98" s="55" t="n">
         <v>54</v>
       </c>
       <c r="P98" s="6" t="n">
@@ -16046,7 +15990,7 @@
       <c r="N99" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="O99" s="49" t="n">
+      <c r="O99" s="5" t="n">
         <v>17</v>
       </c>
       <c r="P99" s="6" t="n">
@@ -16177,7 +16121,7 @@
       <c r="N100" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="O100" s="58" t="n">
+      <c r="O100" s="55" t="n">
         <v>53</v>
       </c>
       <c r="P100" s="6" t="n">
@@ -16568,7 +16512,7 @@
       <c r="N103" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="O103" s="64" t="n">
+      <c r="O103" s="60" t="n">
         <v>11</v>
       </c>
       <c r="P103" s="6" t="n">
@@ -16697,7 +16641,7 @@
       <c r="N104" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="O104" s="49" t="n">
+      <c r="O104" s="5" t="n">
         <v>17</v>
       </c>
       <c r="P104" s="6" t="n">
@@ -16786,7 +16730,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="38" t="s">
         <v>201</v>
       </c>
       <c r="B105" s="2" t="n">
@@ -16828,7 +16772,7 @@
       <c r="N105" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="O105" s="65" t="n">
+      <c r="O105" s="61" t="n">
         <v>23</v>
       </c>
       <c r="P105" s="6" t="n">
@@ -17088,7 +17032,7 @@
       <c r="N107" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="O107" s="49" t="n">
+      <c r="O107" s="5" t="n">
         <v>14</v>
       </c>
       <c r="P107" s="6" t="n">
@@ -17350,7 +17294,7 @@
       <c r="N109" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="O109" s="66" t="n">
+      <c r="O109" s="62" t="n">
         <v>45</v>
       </c>
       <c r="P109" s="6" t="n">
@@ -17437,7 +17381,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="38" t="s">
         <v>206</v>
       </c>
       <c r="B110" s="2" t="n">
@@ -17479,7 +17423,7 @@
       <c r="N110" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="O110" s="38" t="n">
+      <c r="O110" s="37" t="n">
         <v>9</v>
       </c>
       <c r="P110" s="6" t="n">
@@ -17610,7 +17554,7 @@
       <c r="N111" s="6" t="n">
         <v>160</v>
       </c>
-      <c r="O111" s="67" t="n">
+      <c r="O111" s="63" t="n">
         <v>80</v>
       </c>
       <c r="P111" s="6" t="n">
@@ -17655,7 +17599,7 @@
       <c r="AC111" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AD111" s="41" t="n">
+      <c r="AD111" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE111" s="13" t="s">
@@ -17705,7 +17649,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="44" t="s">
         <v>209</v>
       </c>
       <c r="B112" s="2" t="n">
@@ -17834,7 +17778,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B113" s="2" t="n">
@@ -17963,7 +17907,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B114" s="2" t="n">
@@ -18080,7 +18024,7 @@
       <c r="AS114" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT114" s="68" t="s">
+      <c r="AT114" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU114" s="1" t="s">
@@ -18094,7 +18038,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="42" t="s">
         <v>212</v>
       </c>
       <c r="B115" s="2" t="n">
@@ -18346,7 +18290,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="41" t="s">
         <v>215</v>
       </c>
       <c r="B117" s="2" t="n">
@@ -18475,7 +18419,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="42" t="s">
         <v>216</v>
       </c>
       <c r="B118" s="2" t="n">
@@ -18604,7 +18548,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="43" t="s">
+      <c r="A119" s="42" t="s">
         <v>217</v>
       </c>
       <c r="B119" s="2" t="n">
@@ -18735,7 +18679,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="41" t="s">
         <v>218</v>
       </c>
       <c r="B120" s="2" t="n">
@@ -18997,7 +18941,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="42" t="s">
         <v>223</v>
       </c>
       <c r="B122" s="2" t="n">
@@ -19257,7 +19201,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="41" t="s">
         <v>225</v>
       </c>
       <c r="B124" s="2" t="n">
@@ -19643,7 +19587,7 @@
       <c r="AV126" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AW126" s="55" t="s">
+      <c r="AW126" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -19727,7 +19671,7 @@
       <c r="AC127" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AD127" s="41" t="n">
+      <c r="AD127" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE127" s="13" t="s">
@@ -19817,7 +19761,7 @@
       <c r="N128" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O128" s="50" t="n">
+      <c r="O128" s="47" t="n">
         <v>192</v>
       </c>
       <c r="P128" s="6" t="n">
@@ -19854,7 +19798,7 @@
       <c r="AC128" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AD128" s="41" t="n">
+      <c r="AD128" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE128" s="13" t="s">
@@ -19866,7 +19810,7 @@
       <c r="AG128" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="AH128" s="69" t="n">
+      <c r="AH128" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI128" s="14" t="s">
@@ -19948,7 +19892,7 @@
       <c r="N129" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="O129" s="70" t="n">
+      <c r="O129" s="66" t="n">
         <v>145</v>
       </c>
       <c r="P129" s="6" t="n">
@@ -20077,7 +20021,7 @@
       <c r="N130" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O130" s="71" t="n">
+      <c r="O130" s="67" t="n">
         <v>201</v>
       </c>
       <c r="P130" s="6" t="n">
@@ -20114,7 +20058,7 @@
       <c r="AC130" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD130" s="41" t="n">
+      <c r="AD130" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE130" s="13" t="s">
@@ -20164,7 +20108,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="39" t="s">
+      <c r="A131" s="38" t="s">
         <v>240</v>
       </c>
       <c r="B131" s="2" t="n">
@@ -20206,7 +20150,7 @@
       <c r="N131" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="O131" s="72" t="n">
+      <c r="O131" s="68" t="n">
         <v>169</v>
       </c>
       <c r="P131" s="6" t="n">
@@ -20247,7 +20191,7 @@
       <c r="AC131" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AD131" s="41" t="n">
+      <c r="AD131" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE131" s="13" t="s">
@@ -20424,7 +20368,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="38" t="s">
         <v>243</v>
       </c>
       <c r="B133" s="2" t="n">
@@ -20466,7 +20410,7 @@
       <c r="N133" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="O133" s="71" t="n">
+      <c r="O133" s="67" t="n">
         <v>194</v>
       </c>
       <c r="P133" s="6" t="n">
@@ -20595,7 +20539,7 @@
       <c r="N134" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="O134" s="73" t="n">
+      <c r="O134" s="69" t="n">
         <v>314</v>
       </c>
       <c r="P134" s="6" t="n">
@@ -20636,7 +20580,7 @@
       <c r="AC134" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AD134" s="41" t="n">
+      <c r="AD134" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE134" s="13" t="s">
@@ -20684,7 +20628,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
       <c r="B135" s="2" t="n">
@@ -20726,7 +20670,7 @@
       <c r="N135" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="O135" s="74" t="n">
+      <c r="O135" s="70" t="n">
         <v>69</v>
       </c>
       <c r="P135" s="6" t="n">
@@ -20855,7 +20799,7 @@
       <c r="N136" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="O136" s="51" t="n">
+      <c r="O136" s="48" t="n">
         <v>120</v>
       </c>
       <c r="P136" s="6" t="n">
@@ -20896,7 +20840,7 @@
       <c r="AC136" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AD136" s="41" t="n">
+      <c r="AD136" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE136" s="13" t="s">
@@ -20986,7 +20930,7 @@
       <c r="N137" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="O137" s="51" t="n">
+      <c r="O137" s="48" t="n">
         <v>94</v>
       </c>
       <c r="P137" s="6" t="n">
@@ -21115,7 +21059,7 @@
       <c r="N138" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="O138" s="51" t="n">
+      <c r="O138" s="48" t="n">
         <v>96</v>
       </c>
       <c r="P138" s="6" t="n">
@@ -21248,7 +21192,7 @@
       <c r="N139" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="O139" s="56" t="n">
+      <c r="O139" s="53" t="n">
         <v>82</v>
       </c>
       <c r="P139" s="6" t="n">
@@ -21381,7 +21325,7 @@
       <c r="N140" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="O140" s="75" t="n">
+      <c r="O140" s="71" t="n">
         <v>250</v>
       </c>
       <c r="P140" s="6" t="n">
@@ -21426,7 +21370,7 @@
       <c r="AC140" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AD140" s="41" t="n">
+      <c r="AD140" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE140" s="13" t="s">
@@ -21516,7 +21460,7 @@
       <c r="N141" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="O141" s="76" t="n">
+      <c r="O141" s="72" t="n">
         <v>46</v>
       </c>
       <c r="P141" s="6" t="n">
@@ -21649,7 +21593,7 @@
       <c r="N142" s="6" t="n">
         <v>134</v>
       </c>
-      <c r="O142" s="76" t="n">
+      <c r="O142" s="72" t="n">
         <v>47</v>
       </c>
       <c r="P142" s="6" t="n">
@@ -21782,7 +21726,7 @@
       <c r="N143" s="6" t="n">
         <v>195</v>
       </c>
-      <c r="O143" s="49" t="n">
+      <c r="O143" s="5" t="n">
         <v>16</v>
       </c>
       <c r="P143" s="6" t="n">
@@ -21956,7 +21900,7 @@
       <c r="AC144" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD144" s="41" t="n">
+      <c r="AD144" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE144" s="13" t="s">
@@ -22006,7 +21950,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="38" t="s">
         <v>260</v>
       </c>
       <c r="B145" s="2" t="n">
@@ -22048,7 +21992,7 @@
       <c r="N145" s="6" t="n">
         <v>160</v>
       </c>
-      <c r="O145" s="52" t="n">
+      <c r="O145" s="49" t="n">
         <v>21</v>
       </c>
       <c r="P145" s="6" t="n">
@@ -22093,7 +22037,7 @@
       <c r="AC145" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AD145" s="41" t="n">
+      <c r="AD145" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE145" s="13" t="s">
@@ -22272,7 +22216,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B147" s="2" t="n">
@@ -22314,7 +22258,7 @@
       <c r="N147" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O147" s="77" t="n">
+      <c r="O147" s="73" t="n">
         <v>323</v>
       </c>
       <c r="P147" s="6" t="n">
@@ -22630,15 +22574,15 @@
         <v>38</v>
       </c>
       <c r="AN149" s="10"/>
-      <c r="AO149" s="78" t="s">
+      <c r="AO149" s="74" t="s">
         <v>38</v>
       </c>
       <c r="AP149" s="17"/>
-      <c r="AQ149" s="78" t="s">
+      <c r="AQ149" s="74" t="s">
         <v>38</v>
       </c>
       <c r="AR149" s="12"/>
-      <c r="AS149" s="78" t="s">
+      <c r="AS149" s="74" t="s">
         <v>38</v>
       </c>
       <c r="AT149" s="31" t="n">
@@ -22782,7 +22726,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B151" s="2" t="n">
@@ -23036,7 +22980,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B153" s="2" t="n">
@@ -23163,7 +23107,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="45" t="s">
+      <c r="A154" s="44" t="s">
         <v>274</v>
       </c>
       <c r="B154" s="2" t="n">
@@ -23294,7 +23238,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B155" s="2" t="n">
@@ -23423,7 +23367,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B156" s="2" t="n">
@@ -23554,7 +23498,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="42" t="s">
+      <c r="A157" s="41" t="s">
         <v>279</v>
       </c>
       <c r="B157" s="2" t="n">
@@ -23637,7 +23581,7 @@
       <c r="AC157" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="AD157" s="41" t="n">
+      <c r="AD157" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE157" s="13" t="s">
@@ -23685,7 +23629,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B158" s="2" t="n">
@@ -23818,7 +23762,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="45" t="s">
+      <c r="A159" s="44" t="s">
         <v>286</v>
       </c>
       <c r="B159" s="2" t="n">
@@ -23945,7 +23889,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B160" s="2" t="n">
@@ -24028,7 +23972,7 @@
       <c r="AC160" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="AD160" s="41" t="n">
+      <c r="AD160" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE160" s="13" t="s">
@@ -24078,7 +24022,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B161" s="2" t="n">
@@ -24209,7 +24153,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="42" t="s">
+      <c r="A162" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B162" s="2" t="n">
@@ -24296,7 +24240,7 @@
       <c r="AC162" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="AD162" s="41" t="n">
+      <c r="AD162" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE162" s="13" t="s">
@@ -24344,7 +24288,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="2" t="n">
@@ -24427,7 +24371,7 @@
       <c r="AC163" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD163" s="41" t="n">
+      <c r="AD163" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE163" s="13" t="s">
@@ -24608,7 +24552,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="41" t="s">
         <v>300</v>
       </c>
       <c r="B165" s="2" t="n">
@@ -24953,7 +24897,7 @@
       <c r="AC167" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AD167" s="41" t="n">
+      <c r="AD167" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE167" s="13" t="s">
@@ -24972,19 +24916,19 @@
         <v>38</v>
       </c>
       <c r="AL167" s="16"/>
-      <c r="AM167" s="79" t="s">
+      <c r="AM167" s="75" t="s">
         <v>38</v>
       </c>
       <c r="AN167" s="10"/>
-      <c r="AO167" s="79" t="s">
+      <c r="AO167" s="75" t="s">
         <v>38</v>
       </c>
       <c r="AP167" s="17"/>
-      <c r="AQ167" s="79" t="s">
+      <c r="AQ167" s="75" t="s">
         <v>38</v>
       </c>
       <c r="AR167" s="12"/>
-      <c r="AS167" s="79" t="s">
+      <c r="AS167" s="75" t="s">
         <v>38</v>
       </c>
       <c r="AT167" s="21" t="n">
@@ -25001,7 +24945,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="80" t="s">
+      <c r="A168" s="76" t="s">
         <v>307</v>
       </c>
       <c r="B168" s="2" t="n">
@@ -25134,7 +25078,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="42" t="s">
         <v>310</v>
       </c>
       <c r="B169" s="2" t="n">
@@ -25352,7 +25296,7 @@
       <c r="AC170" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AD170" s="41" t="n">
+      <c r="AD170" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE170" s="13" t="s">
@@ -25645,7 +25589,7 @@
         <v>38</v>
       </c>
       <c r="AR172" s="12"/>
-      <c r="AS172" s="78" t="s">
+      <c r="AS172" s="74" t="s">
         <v>38</v>
       </c>
       <c r="AT172" s="31" t="n">
@@ -25657,7 +25601,7 @@
       <c r="AV172" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AW172" s="55" t="s">
+      <c r="AW172" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -25741,7 +25685,7 @@
       <c r="AC173" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AD173" s="41" t="n">
+      <c r="AD173" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE173" s="13" t="s">
@@ -25833,7 +25777,7 @@
       <c r="N174" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O174" s="81" t="n">
+      <c r="O174" s="77" t="n">
         <v>559</v>
       </c>
       <c r="P174" s="6" t="n">
@@ -25870,7 +25814,7 @@
       <c r="AC174" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="AD174" s="41" t="n">
+      <c r="AD174" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE174" s="13" t="s">
@@ -25962,7 +25906,7 @@
       <c r="N175" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O175" s="82" t="n">
+      <c r="O175" s="24" t="n">
         <v>572</v>
       </c>
       <c r="P175" s="6" t="n">
@@ -25999,7 +25943,7 @@
       <c r="AC175" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="AD175" s="41" t="n">
+      <c r="AD175" s="40" t="n">
         <v>5</v>
       </c>
       <c r="AE175" s="13" t="s">
@@ -26089,7 +26033,7 @@
       <c r="N176" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="O176" s="57" t="n">
+      <c r="O176" s="54" t="n">
         <v>131</v>
       </c>
       <c r="P176" s="6" t="n">
@@ -26255,7 +26199,7 @@
       <c r="AC177" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD177" s="41" t="n">
+      <c r="AD177" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE177" s="13" t="s">
@@ -26388,7 +26332,7 @@
       <c r="AC178" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD178" s="41" t="n">
+      <c r="AD178" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE178" s="13" t="s">
@@ -26519,7 +26463,7 @@
       <c r="AC179" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD179" s="41" t="n">
+      <c r="AD179" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE179" s="13" t="s">
@@ -26611,7 +26555,7 @@
       <c r="N180" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="O180" s="77" t="n">
+      <c r="O180" s="73" t="n">
         <v>344</v>
       </c>
       <c r="P180" s="6" t="n">
@@ -26652,7 +26596,7 @@
       <c r="AC180" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AD180" s="41" t="n">
+      <c r="AD180" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE180" s="13" t="s">
@@ -26744,7 +26688,7 @@
       <c r="N181" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="O181" s="83" t="n">
+      <c r="O181" s="78" t="n">
         <v>352</v>
       </c>
       <c r="P181" s="6" t="n">
@@ -26873,7 +26817,7 @@
       <c r="N182" s="6" t="n">
         <v>180</v>
       </c>
-      <c r="O182" s="84" t="n">
+      <c r="O182" s="79" t="n">
         <v>270</v>
       </c>
       <c r="P182" s="6" t="n">
@@ -27002,7 +26946,7 @@
       <c r="N183" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="O183" s="85" t="n">
+      <c r="O183" s="80" t="n">
         <v>160</v>
       </c>
       <c r="P183" s="6" t="n">
@@ -27047,7 +26991,7 @@
       <c r="AC183" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AD183" s="41" t="n">
+      <c r="AD183" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE183" s="13" t="s">
@@ -27137,7 +27081,7 @@
       <c r="N184" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="O184" s="51" t="n">
+      <c r="O184" s="48" t="n">
         <v>106</v>
       </c>
       <c r="P184" s="6" t="n">
@@ -27178,7 +27122,7 @@
       <c r="AC184" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="AD184" s="41" t="n">
+      <c r="AD184" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE184" s="13" t="s">
@@ -27268,7 +27212,7 @@
       <c r="N185" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="O185" s="71" t="n">
+      <c r="O185" s="67" t="n">
         <v>206</v>
       </c>
       <c r="P185" s="6" t="n">
@@ -27309,7 +27253,7 @@
       <c r="AC185" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD185" s="41" t="n">
+      <c r="AD185" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE185" s="13" t="s">
@@ -27359,7 +27303,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="39" t="s">
+      <c r="A186" s="38" t="s">
         <v>340</v>
       </c>
       <c r="B186" s="2" t="n">
@@ -27401,7 +27345,7 @@
       <c r="N186" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="O186" s="85" t="n">
+      <c r="O186" s="80" t="n">
         <v>155</v>
       </c>
       <c r="P186" s="6" t="n">
@@ -27446,7 +27390,7 @@
       <c r="AC186" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AD186" s="41" t="n">
+      <c r="AD186" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE186" s="13" t="s">
@@ -27581,7 +27525,7 @@
       <c r="AC187" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="AD187" s="41" t="n">
+      <c r="AD187" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE187" s="13" t="s">
@@ -27593,7 +27537,7 @@
       <c r="AG187" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH187" s="69" t="n">
+      <c r="AH187" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI187" s="14" t="s">
@@ -27633,7 +27577,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="39" t="s">
+      <c r="A188" s="38" t="s">
         <v>342</v>
       </c>
       <c r="B188" s="2" t="n">
@@ -27716,7 +27660,7 @@
       <c r="AC188" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD188" s="41" t="n">
+      <c r="AD188" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE188" s="13" t="s">
@@ -27806,7 +27750,7 @@
       <c r="N189" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="O189" s="50" t="n">
+      <c r="O189" s="47" t="n">
         <v>185</v>
       </c>
       <c r="P189" s="6" t="n">
@@ -27851,7 +27795,7 @@
       <c r="AC189" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AD189" s="41" t="n">
+      <c r="AD189" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE189" s="13" t="s">
@@ -27899,7 +27843,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="38" t="s">
         <v>345</v>
       </c>
       <c r="B190" s="2" t="n">
@@ -27941,7 +27885,7 @@
       <c r="N190" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="O190" s="85" t="n">
+      <c r="O190" s="80" t="n">
         <v>152</v>
       </c>
       <c r="P190" s="6" t="n">
@@ -28028,7 +27972,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="80" t="s">
+      <c r="A191" s="76" t="s">
         <v>346</v>
       </c>
       <c r="B191" s="2" t="n">
@@ -28238,7 +28182,7 @@
       <c r="AC192" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD192" s="41" t="n">
+      <c r="AD192" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE192" s="13" t="s">
@@ -28548,7 +28492,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="39" t="s">
+      <c r="A195" s="38" t="s">
         <v>351</v>
       </c>
       <c r="B195" s="2" t="n">
@@ -28635,7 +28579,7 @@
       <c r="AC195" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AD195" s="41" t="n">
+      <c r="AD195" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE195" s="13" t="s">
@@ -28683,7 +28627,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="39" t="s">
+      <c r="A196" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B196" s="2" t="n">
@@ -28818,7 +28762,7 @@
       <c r="B197" s="2" t="n">
         <v>79.66</v>
       </c>
-      <c r="C197" s="86"/>
+      <c r="C197" s="81"/>
       <c r="D197" s="4" t="n">
         <v>45.5</v>
       </c>
@@ -28847,11 +28791,11 @@
       <c r="O197" s="29" t="n">
         <v>1239</v>
       </c>
-      <c r="P197" s="87" t="e">
+      <c r="P197" s="82" t="e">
         <f aca="false">#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="Q197" s="87" t="e">
+      <c r="Q197" s="82" t="e">
         <f aca="false">#N/A</f>
         <v>#N/A</v>
       </c>
@@ -28887,7 +28831,7 @@
       <c r="AC197" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="AD197" s="41" t="n">
+      <c r="AD197" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE197" s="13" t="s">
@@ -28977,7 +28921,7 @@
       <c r="N198" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O198" s="82" t="n">
+      <c r="O198" s="24" t="n">
         <v>576</v>
       </c>
       <c r="P198" s="6" t="n">
@@ -29060,7 +29004,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="42" t="s">
         <v>360</v>
       </c>
       <c r="B199" s="2" t="n">
@@ -29189,7 +29133,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="43" t="s">
+      <c r="A200" s="42" t="s">
         <v>361</v>
       </c>
       <c r="B200" s="2" t="n">
@@ -29320,7 +29264,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="42" t="s">
+      <c r="A201" s="41" t="s">
         <v>363</v>
       </c>
       <c r="B201" s="2" t="n">
@@ -29362,7 +29306,7 @@
       <c r="N201" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="O201" s="81" t="n">
+      <c r="O201" s="77" t="n">
         <v>569</v>
       </c>
       <c r="P201" s="6" t="n">
@@ -29403,7 +29347,7 @@
       <c r="AC201" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AD201" s="41" t="n">
+      <c r="AD201" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE201" s="13" t="s">
@@ -29451,7 +29395,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="42" t="s">
         <v>365</v>
       </c>
       <c r="B202" s="2" t="n">
@@ -29534,7 +29478,7 @@
       <c r="AC202" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AD202" s="41" t="n">
+      <c r="AD202" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE202" s="13" t="s">
@@ -29663,7 +29607,7 @@
       <c r="AC203" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AD203" s="41" t="n">
+      <c r="AD203" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE203" s="13" t="s">
@@ -30054,7 +29998,7 @@
       <c r="AC206" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AD206" s="41" t="n">
+      <c r="AD206" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE206" s="13" t="s">
@@ -30104,7 +30048,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="43" t="s">
+      <c r="A207" s="42" t="s">
         <v>373</v>
       </c>
       <c r="B207" s="2" t="n">
@@ -30191,7 +30135,7 @@
       <c r="AC207" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AD207" s="41" t="n">
+      <c r="AD207" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE207" s="13" t="s">
@@ -30283,7 +30227,7 @@
       <c r="N208" s="6" t="n">
         <v>205</v>
       </c>
-      <c r="O208" s="88" t="n">
+      <c r="O208" s="83" t="n">
         <v>242</v>
       </c>
       <c r="P208" s="6" t="n">
@@ -30372,7 +30316,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="42" t="s">
         <v>377</v>
       </c>
       <c r="B209" s="2" t="n">
@@ -30505,7 +30449,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="42" t="s">
         <v>380</v>
       </c>
       <c r="B210" s="2" t="n">
@@ -30721,7 +30665,7 @@
       <c r="AC211" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AD211" s="41" t="n">
+      <c r="AD211" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE211" s="13" t="s">
@@ -30771,7 +30715,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="43" t="s">
+      <c r="A212" s="42" t="s">
         <v>386</v>
       </c>
       <c r="B212" s="2" t="n">
@@ -30854,7 +30798,7 @@
       <c r="AC212" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AD212" s="41" t="n">
+      <c r="AD212" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE212" s="13" t="s">
@@ -30902,7 +30846,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="42" t="s">
+      <c r="A213" s="41" t="s">
         <v>388</v>
       </c>
       <c r="B213" s="2" t="n">
@@ -30989,7 +30933,7 @@
       <c r="AC213" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="AD213" s="41" t="n">
+      <c r="AD213" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE213" s="13" t="s">
@@ -31120,7 +31064,7 @@
       <c r="AC214" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AD214" s="41" t="n">
+      <c r="AD214" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE214" s="13" t="s">
@@ -31515,7 +31459,7 @@
       <c r="AC217" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="AD217" s="41" t="n">
+      <c r="AD217" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE217" s="13" t="s">
@@ -31527,19 +31471,19 @@
       <c r="AG217" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="AH217" s="69" t="n">
+      <c r="AH217" s="65" t="n">
         <v>3</v>
       </c>
       <c r="AI217" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AJ217" s="89" t="n">
+      <c r="AJ217" s="84" t="n">
         <v>1</v>
       </c>
       <c r="AK217" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="AL217" s="90" t="n">
+      <c r="AL217" s="85" t="n">
         <v>2</v>
       </c>
       <c r="AM217" s="16" t="s">
@@ -31571,7 +31515,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="43" t="s">
+      <c r="A218" s="42" t="s">
         <v>404</v>
       </c>
       <c r="B218" s="2" t="n">
@@ -31702,7 +31646,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="42" t="s">
         <v>406</v>
       </c>
       <c r="B219" s="2" t="n">
@@ -31828,12 +31772,12 @@
       <c r="AV219" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AW219" s="55" t="s">
+      <c r="AW219" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="80" t="s">
+      <c r="A220" s="76" t="s">
         <v>408</v>
       </c>
       <c r="B220" s="2" t="n">
@@ -32051,7 +31995,7 @@
       <c r="AC221" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="AD221" s="41" t="n">
+      <c r="AD221" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE221" s="13" t="s">
@@ -32232,7 +32176,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="43" t="s">
+      <c r="A223" s="42" t="s">
         <v>415</v>
       </c>
       <c r="B223" s="2" t="n">
@@ -32444,7 +32388,7 @@
       <c r="AC224" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="AD224" s="41" t="n">
+      <c r="AD224" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE224" s="13" t="s">
@@ -32456,7 +32400,7 @@
       <c r="AG224" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="AH224" s="69" t="n">
+      <c r="AH224" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI224" s="14" t="s">
@@ -32538,7 +32482,7 @@
       <c r="N225" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O225" s="85" t="n">
+      <c r="O225" s="80" t="n">
         <v>637</v>
       </c>
       <c r="P225" s="6" t="n">
@@ -32575,7 +32519,7 @@
       <c r="AC225" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AD225" s="41" t="n">
+      <c r="AD225" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE225" s="13" t="s">
@@ -32587,7 +32531,7 @@
       <c r="AG225" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="AH225" s="69" t="n">
+      <c r="AH225" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI225" s="14" t="s">
@@ -32669,7 +32613,7 @@
       <c r="N226" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O226" s="57" t="n">
+      <c r="O226" s="54" t="n">
         <v>622</v>
       </c>
       <c r="P226" s="6" t="n">
@@ -32706,7 +32650,7 @@
       <c r="AC226" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD226" s="41" t="n">
+      <c r="AD226" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE226" s="13" t="s">
@@ -32798,7 +32742,7 @@
       <c r="N227" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="O227" s="51" t="n">
+      <c r="O227" s="48" t="n">
         <v>613</v>
       </c>
       <c r="P227" s="6" t="n">
@@ -33052,7 +32996,7 @@
       <c r="N229" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="O229" s="91" t="n">
+      <c r="O229" s="86" t="n">
         <v>459</v>
       </c>
       <c r="P229" s="6" t="n">
@@ -33093,7 +33037,7 @@
       <c r="AC229" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD229" s="41" t="n">
+      <c r="AD229" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE229" s="13" t="s">
@@ -33105,13 +33049,13 @@
       <c r="AG229" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="AH229" s="69" t="n">
+      <c r="AH229" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI229" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="AJ229" s="89" t="n">
+      <c r="AJ229" s="84" t="n">
         <v>2</v>
       </c>
       <c r="AK229" s="15" t="s">
@@ -33189,7 +33133,7 @@
       <c r="N230" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="O230" s="40" t="n">
+      <c r="O230" s="39" t="n">
         <v>419</v>
       </c>
       <c r="P230" s="6" t="n">
@@ -33230,7 +33174,7 @@
       <c r="AC230" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="AD230" s="41" t="n">
+      <c r="AD230" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE230" s="13" t="s">
@@ -33322,7 +33266,7 @@
       <c r="N231" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="O231" s="51" t="n">
+      <c r="O231" s="48" t="n">
         <v>610</v>
       </c>
       <c r="P231" s="6" t="n">
@@ -33363,7 +33307,7 @@
       <c r="AC231" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="AD231" s="41" t="n">
+      <c r="AD231" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE231" s="13" t="s">
@@ -33413,7 +33357,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="39" t="s">
+      <c r="A232" s="38" t="s">
         <v>426</v>
       </c>
       <c r="B232" s="2" t="n">
@@ -33455,7 +33399,7 @@
       <c r="N232" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="O232" s="92" t="n">
+      <c r="O232" s="87" t="n">
         <v>510</v>
       </c>
       <c r="P232" s="6" t="n">
@@ -33496,7 +33440,7 @@
       <c r="AC232" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AD232" s="41" t="n">
+      <c r="AD232" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE232" s="13" t="s">
@@ -33631,7 +33575,7 @@
       <c r="AC233" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD233" s="41" t="n">
+      <c r="AD233" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE233" s="13" t="s">
@@ -33721,7 +33665,7 @@
       <c r="N234" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="O234" s="93" t="n">
+      <c r="O234" s="88" t="n">
         <v>438</v>
       </c>
       <c r="P234" s="6" t="n">
@@ -33762,7 +33706,7 @@
       <c r="AC234" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD234" s="41" t="n">
+      <c r="AD234" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE234" s="13" t="s">
@@ -33854,7 +33798,7 @@
       <c r="N235" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="O235" s="84" t="n">
+      <c r="O235" s="79" t="n">
         <v>685</v>
       </c>
       <c r="P235" s="6" t="n">
@@ -33895,7 +33839,7 @@
       <c r="AC235" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="AD235" s="41" t="n">
+      <c r="AD235" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE235" s="13" t="s">
@@ -33943,7 +33887,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="39" t="s">
+      <c r="A236" s="38" t="s">
         <v>430</v>
       </c>
       <c r="B236" s="2" t="n">
@@ -34026,7 +33970,7 @@
       <c r="AC236" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="AD236" s="41" t="n">
+      <c r="AD236" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE236" s="13" t="s">
@@ -34038,13 +33982,13 @@
       <c r="AG236" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="AH236" s="69" t="n">
+      <c r="AH236" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI236" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AJ236" s="89" t="n">
+      <c r="AJ236" s="84" t="n">
         <v>1</v>
       </c>
       <c r="AK236" s="15" t="s">
@@ -34253,7 +34197,7 @@
       <c r="N238" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="O238" s="50" t="n">
+      <c r="O238" s="47" t="n">
         <v>646</v>
       </c>
       <c r="P238" s="6" t="n">
@@ -34298,7 +34242,7 @@
       <c r="AC238" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="AD238" s="41" t="n">
+      <c r="AD238" s="40" t="n">
         <v>5</v>
       </c>
       <c r="AE238" s="13" t="s">
@@ -34390,7 +34334,7 @@
       <c r="N239" s="6" t="n">
         <v>211</v>
       </c>
-      <c r="O239" s="65" t="n">
+      <c r="O239" s="61" t="n">
         <v>414</v>
       </c>
       <c r="P239" s="6" t="n">
@@ -34431,7 +34375,7 @@
       <c r="AC239" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="AD239" s="41" t="n">
+      <c r="AD239" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE239" s="13" t="s">
@@ -34568,7 +34512,7 @@
       <c r="AC240" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="AD240" s="41" t="n">
+      <c r="AD240" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE240" s="13" t="s">
@@ -34618,7 +34562,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="39" t="s">
+      <c r="A241" s="38" t="s">
         <v>436</v>
       </c>
       <c r="B241" s="2" t="n">
@@ -34705,7 +34649,7 @@
       <c r="AC241" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AD241" s="41" t="n">
+      <c r="AD241" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE241" s="13" t="s">
@@ -34753,7 +34697,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="80" t="s">
+      <c r="A242" s="76" t="s">
         <v>437</v>
       </c>
       <c r="B242" s="2" t="n">
@@ -34840,7 +34784,7 @@
       <c r="AC242" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="AD242" s="41"/>
+      <c r="AD242" s="40"/>
       <c r="AE242" s="13" t="s">
         <v>38</v>
       </c>
@@ -34848,7 +34792,7 @@
       <c r="AG242" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AH242" s="69"/>
+      <c r="AH242" s="65"/>
       <c r="AI242" s="14" t="s">
         <v>38</v>
       </c>
@@ -34886,7 +34830,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="94" t="s">
+      <c r="A243" s="89" t="s">
         <v>440</v>
       </c>
       <c r="B243" s="2" t="n">
@@ -34973,7 +34917,7 @@
       <c r="AC243" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="AD243" s="41" t="n">
+      <c r="AD243" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE243" s="13" t="s">
@@ -35021,7 +34965,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="95" t="s">
+      <c r="A244" s="90" t="s">
         <v>444</v>
       </c>
       <c r="B244" s="2" t="n">
@@ -35100,7 +35044,7 @@
       <c r="AC244" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="AD244" s="41" t="n">
+      <c r="AD244" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE244" s="13" t="s">
@@ -35148,7 +35092,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="42" t="s">
+      <c r="A245" s="41" t="s">
         <v>445</v>
       </c>
       <c r="B245" s="2" t="n">
@@ -35398,7 +35342,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="43" t="s">
+      <c r="A247" s="42" t="s">
         <v>447</v>
       </c>
       <c r="B247" s="2" t="n">
@@ -35523,7 +35467,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="42" t="s">
+      <c r="A248" s="41" t="s">
         <v>450</v>
       </c>
       <c r="B248" s="2" t="n">
@@ -35777,7 +35721,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="43" t="s">
+      <c r="A250" s="42" t="s">
         <v>452</v>
       </c>
       <c r="B250" s="2" t="n">
@@ -35900,7 +35844,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="43" t="s">
+      <c r="A251" s="42" t="s">
         <v>454</v>
       </c>
       <c r="B251" s="2" t="n">
@@ -35983,7 +35927,7 @@
       <c r="AC251" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="AD251" s="41" t="n">
+      <c r="AD251" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE251" s="13" t="s">
@@ -36156,7 +36100,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="43" t="s">
+      <c r="A253" s="42" t="s">
         <v>460</v>
       </c>
       <c r="B253" s="2" t="n">
@@ -36285,7 +36229,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="43" t="s">
+      <c r="A254" s="42" t="s">
         <v>463</v>
       </c>
       <c r="B254" s="2" t="n">
@@ -36414,7 +36358,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="43" t="s">
+      <c r="A255" s="42" t="s">
         <v>466</v>
       </c>
       <c r="B255" s="2" t="n">
@@ -36543,7 +36487,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="42" t="s">
+      <c r="A256" s="41" t="s">
         <v>469</v>
       </c>
       <c r="B256" s="2" t="n">
@@ -36759,7 +36703,7 @@
       <c r="AC257" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="AD257" s="41" t="n">
+      <c r="AD257" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE257" s="13" t="s">
@@ -36809,7 +36753,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="43" t="s">
+      <c r="A258" s="42" t="s">
         <v>471</v>
       </c>
       <c r="B258" s="2" t="n">
@@ -37150,7 +37094,7 @@
       <c r="AC260" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AD260" s="41" t="n">
+      <c r="AD260" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE260" s="13" t="s">
@@ -37160,7 +37104,7 @@
       <c r="AG260" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AH260" s="69"/>
+      <c r="AH260" s="65"/>
       <c r="AI260" s="14" t="s">
         <v>38</v>
       </c>
@@ -37587,7 +37531,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="43" t="s">
+      <c r="A264" s="42" t="s">
         <v>483</v>
       </c>
       <c r="B264" s="2" t="n">
@@ -37720,7 +37664,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="42" t="s">
+      <c r="A265" s="41" t="s">
         <v>486</v>
       </c>
       <c r="B265" s="2" t="n">
@@ -37853,7 +37797,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="43" t="s">
+      <c r="A266" s="42" t="s">
         <v>487</v>
       </c>
       <c r="B266" s="2" t="n">
@@ -37982,7 +37926,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="43" t="s">
+      <c r="A267" s="42" t="s">
         <v>490</v>
       </c>
       <c r="B267" s="2" t="n">
@@ -38069,7 +38013,7 @@
       <c r="AC267" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AD267" s="41" t="n">
+      <c r="AD267" s="40" t="n">
         <v>6</v>
       </c>
       <c r="AE267" s="13" t="s">
@@ -38117,7 +38061,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="43" t="s">
+      <c r="A268" s="42" t="s">
         <v>493</v>
       </c>
       <c r="B268" s="2" t="n">
@@ -38375,7 +38319,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="42" t="s">
         <v>499</v>
       </c>
       <c r="B270" s="2" t="n">
@@ -38462,7 +38406,7 @@
       <c r="AC270" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="AD270" s="41" t="n">
+      <c r="AD270" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE270" s="13" t="s">
@@ -38595,7 +38539,7 @@
       <c r="AC271" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AD271" s="41" t="n">
+      <c r="AD271" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE271" s="13" t="s">
@@ -38607,7 +38551,7 @@
       <c r="AG271" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="AH271" s="69"/>
+      <c r="AH271" s="65"/>
       <c r="AI271" s="14" t="s">
         <v>38</v>
       </c>
@@ -38645,7 +38589,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="43" t="s">
+      <c r="A272" s="42" t="s">
         <v>506</v>
       </c>
       <c r="B272" s="2" t="n">
@@ -38732,7 +38676,7 @@
       <c r="AC272" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="AD272" s="41" t="n">
+      <c r="AD272" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE272" s="13" t="s">
@@ -38782,7 +38726,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="43" t="s">
+      <c r="A273" s="42" t="s">
         <v>511</v>
       </c>
       <c r="B273" s="2" t="n">
@@ -39002,7 +38946,7 @@
       <c r="AC274" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AD274" s="41" t="n">
+      <c r="AD274" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE274" s="13" t="s">
@@ -39183,7 +39127,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="43" t="s">
+      <c r="A276" s="42" t="s">
         <v>519</v>
       </c>
       <c r="B276" s="2" t="n">
@@ -39270,7 +39214,7 @@
       <c r="AC276" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="AD276" s="41" t="n">
+      <c r="AD276" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE276" s="13" t="s">
@@ -39445,7 +39389,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="39" t="s">
+      <c r="A278" s="38" t="s">
         <v>524</v>
       </c>
       <c r="B278" s="2" t="n">
@@ -39524,7 +39468,7 @@
       <c r="AC278" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AD278" s="41" t="n">
+      <c r="AD278" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE278" s="13" t="s">
@@ -39653,7 +39597,7 @@
       <c r="AC279" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="AD279" s="41" t="n">
+      <c r="AD279" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE279" s="13" t="s">
@@ -39703,7 +39647,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="39" t="s">
+      <c r="A280" s="38" t="s">
         <v>530</v>
       </c>
       <c r="B280" s="2" t="n">
@@ -39790,7 +39734,7 @@
       <c r="AC280" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="AD280" s="41" t="n">
+      <c r="AD280" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE280" s="13" t="s">
@@ -39802,7 +39746,7 @@
       <c r="AG280" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="AH280" s="69" t="n">
+      <c r="AH280" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI280" s="14" t="s">
@@ -39929,7 +39873,7 @@
       <c r="AC281" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="AD281" s="41" t="n">
+      <c r="AD281" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE281" s="13" t="s">
@@ -40060,7 +40004,7 @@
       <c r="AC282" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="AD282" s="41" t="n">
+      <c r="AD282" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE282" s="13" t="s">
@@ -40103,12 +40047,12 @@
       <c r="AV282" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AW282" s="55" t="s">
+      <c r="AW282" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="42" t="s">
+      <c r="A283" s="41" t="s">
         <v>536</v>
       </c>
       <c r="B283" s="2" t="n">
@@ -40241,7 +40185,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="43" t="s">
+      <c r="A284" s="42" t="s">
         <v>539</v>
       </c>
       <c r="B284" s="2" t="n">
@@ -40374,7 +40318,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="42" t="s">
+      <c r="A285" s="41" t="s">
         <v>542</v>
       </c>
       <c r="B285" s="2" t="n">
@@ -40507,7 +40451,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="39" t="s">
+      <c r="A286" s="38" t="s">
         <v>545</v>
       </c>
       <c r="B286" s="2" t="n">
@@ -40522,40 +40466,40 @@
       <c r="E286" s="5" t="n">
         <v>726.3</v>
       </c>
-      <c r="F286" s="96" t="n">
+      <c r="F286" s="91" t="n">
         <v>328</v>
       </c>
-      <c r="G286" s="96" t="n">
+      <c r="G286" s="91" t="n">
         <v>315</v>
       </c>
-      <c r="H286" s="96" t="n">
+      <c r="H286" s="91" t="n">
         <v>8707</v>
       </c>
-      <c r="I286" s="97" t="n">
+      <c r="I286" s="92" t="n">
         <v>7122</v>
       </c>
-      <c r="J286" s="97" t="n">
+      <c r="J286" s="92" t="n">
         <v>10292</v>
       </c>
-      <c r="K286" s="97" t="n">
+      <c r="K286" s="92" t="n">
         <v>237</v>
       </c>
-      <c r="L286" s="97" t="n">
+      <c r="L286" s="92" t="n">
         <v>419</v>
       </c>
-      <c r="M286" s="97" t="n">
+      <c r="M286" s="92" t="n">
         <v>322</v>
       </c>
-      <c r="N286" s="97" t="n">
+      <c r="N286" s="92" t="n">
         <v>308</v>
       </c>
-      <c r="O286" s="97" t="n">
+      <c r="O286" s="92" t="n">
         <v>2091</v>
       </c>
-      <c r="P286" s="97" t="n">
+      <c r="P286" s="92" t="n">
         <v>8000</v>
       </c>
-      <c r="Q286" s="97" t="n">
+      <c r="Q286" s="92" t="n">
         <v>8500</v>
       </c>
       <c r="R286" s="7" t="n">
@@ -40594,7 +40538,7 @@
       <c r="AC286" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AD286" s="41" t="n">
+      <c r="AD286" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE286" s="13" t="s">
@@ -40606,31 +40550,31 @@
       <c r="AG286" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="AH286" s="98"/>
-      <c r="AI286" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ286" s="99"/>
+      <c r="AH286" s="93"/>
+      <c r="AI286" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ286" s="94"/>
       <c r="AK286" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AL286" s="100"/>
+      <c r="AL286" s="95"/>
       <c r="AM286" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AN286" s="101"/>
+      <c r="AN286" s="96"/>
       <c r="AO286" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AP286" s="102"/>
+      <c r="AP286" s="97"/>
       <c r="AQ286" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AR286" s="103"/>
-      <c r="AS286" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT286" s="104" t="n">
+      <c r="AR286" s="98"/>
+      <c r="AS286" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT286" s="99" t="n">
         <v>1344066</v>
       </c>
       <c r="AU286" s="1" t="s">
@@ -40645,7 +40589,7 @@
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="30" t="s">
-        <v>408</v>
+        <v>550</v>
       </c>
       <c r="B287" s="2" t="n">
         <v>762.29</v>
@@ -40723,7 +40667,7 @@
         <v>1</v>
       </c>
       <c r="AA287" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB287" s="23" t="n">
         <v>2</v>
@@ -40731,29 +40675,29 @@
       <c r="AC287" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AD287" s="41" t="n">
+      <c r="AD287" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE287" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF287" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AG287" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="AH287" s="69" t="n">
+        <v>553</v>
+      </c>
+      <c r="AH287" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI287" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="AJ287" s="89" t="n">
+        <v>554</v>
+      </c>
+      <c r="AJ287" s="84" t="n">
         <v>1</v>
       </c>
       <c r="AK287" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL287" s="16"/>
       <c r="AM287" s="16" t="s">
@@ -40785,8 +40729,8 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="95" t="s">
-        <v>555</v>
+      <c r="A288" s="90" t="s">
+        <v>556</v>
       </c>
       <c r="B288" s="2" t="n">
         <v>78</v>
@@ -40864,7 +40808,7 @@
       <c r="AC288" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD288" s="41" t="n">
+      <c r="AD288" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE288" s="13" t="s">
@@ -40902,7 +40846,7 @@
         <v>272119</v>
       </c>
       <c r="AU288" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV288" s="1" t="s">
         <v>41</v>
@@ -40913,7 +40857,7 @@
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B289" s="2" t="n">
         <v>102.5</v>
@@ -41027,7 +40971,7 @@
         <v>266906</v>
       </c>
       <c r="AU289" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV289" s="1" t="s">
         <v>41</v>
@@ -41038,7 +40982,7 @@
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B290" s="2" t="n">
         <v>143.92</v>
@@ -41116,7 +41060,7 @@
       <c r="AC290" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AD290" s="41" t="n">
+      <c r="AD290" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE290" s="13" t="s">
@@ -41156,7 +41100,7 @@
         <v>216762</v>
       </c>
       <c r="AU290" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV290" s="1" t="s">
         <v>41</v>
@@ -41167,7 +41111,7 @@
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B291" s="2" t="n">
         <v>153.25</v>
@@ -41245,7 +41189,7 @@
       <c r="AC291" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD291" s="41" t="n">
+      <c r="AD291" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE291" s="13" t="s">
@@ -41283,7 +41227,7 @@
         <v>198800</v>
       </c>
       <c r="AU291" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV291" s="1" t="s">
         <v>41</v>
@@ -41294,7 +41238,7 @@
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B292" s="2" t="n">
         <v>153.75</v>
@@ -41408,7 +41352,7 @@
         <v>334563</v>
       </c>
       <c r="AU292" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV292" s="1" t="s">
         <v>41</v>
@@ -41419,7 +41363,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B293" s="2" t="n">
         <v>159.6</v>
@@ -41533,7 +41477,7 @@
         <v>273104</v>
       </c>
       <c r="AU293" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV293" s="1" t="s">
         <v>41</v>
@@ -41544,7 +41488,7 @@
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B294" s="2" t="n">
         <v>161.53</v>
@@ -41622,7 +41566,7 @@
       <c r="AC294" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="AD294" s="41" t="n">
+      <c r="AD294" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE294" s="13" t="s">
@@ -41634,7 +41578,7 @@
       <c r="AG294" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH294" s="69" t="n">
+      <c r="AH294" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI294" s="14" t="s">
@@ -41664,7 +41608,7 @@
         <v>330940</v>
       </c>
       <c r="AU294" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV294" s="1" t="s">
         <v>41</v>
@@ -41674,8 +41618,8 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="95" t="s">
-        <v>563</v>
+      <c r="A295" s="90" t="s">
+        <v>564</v>
       </c>
       <c r="B295" s="2" t="n">
         <v>162.35</v>
@@ -41753,7 +41697,7 @@
       <c r="AC295" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AD295" s="41" t="n">
+      <c r="AD295" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE295" s="13" t="s">
@@ -41791,7 +41735,7 @@
         <v>293903</v>
       </c>
       <c r="AU295" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV295" s="1" t="s">
         <v>41</v>
@@ -41802,7 +41746,7 @@
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B296" s="2" t="n">
         <v>188.24</v>
@@ -41884,7 +41828,7 @@
       <c r="AC296" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD296" s="41" t="n">
+      <c r="AD296" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE296" s="13" t="s">
@@ -41924,7 +41868,7 @@
         <v>303900</v>
       </c>
       <c r="AU296" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV296" s="1" t="s">
         <v>41</v>
@@ -41935,7 +41879,7 @@
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B297" s="2" t="n">
         <v>207.41</v>
@@ -42013,7 +41957,7 @@
       <c r="AC297" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AD297" s="41" t="n">
+      <c r="AD297" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE297" s="13" t="s">
@@ -42025,7 +41969,7 @@
       <c r="AG297" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="AH297" s="69" t="n">
+      <c r="AH297" s="65" t="n">
         <v>3</v>
       </c>
       <c r="AI297" s="14" t="s">
@@ -42055,7 +41999,7 @@
         <v>272598</v>
       </c>
       <c r="AU297" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV297" s="1" t="s">
         <v>41</v>
@@ -42066,7 +42010,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B298" s="2" t="n">
         <v>211.68</v>
@@ -42144,7 +42088,7 @@
       <c r="AC298" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD298" s="41" t="n">
+      <c r="AD298" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE298" s="13" t="s">
@@ -42184,7 +42128,7 @@
         <v>252777</v>
       </c>
       <c r="AU298" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV298" s="1" t="s">
         <v>41</v>
@@ -42195,7 +42139,7 @@
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B299" s="2" t="n">
         <v>290.87</v>
@@ -42236,7 +42180,7 @@
       <c r="N299" s="6" t="n">
         <v>182</v>
       </c>
-      <c r="O299" s="105" t="n">
+      <c r="O299" s="45" t="n">
         <v>909</v>
       </c>
       <c r="P299" s="6" t="n">
@@ -42281,7 +42225,7 @@
       <c r="AC299" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD299" s="41" t="n">
+      <c r="AD299" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE299" s="13" t="s">
@@ -42319,7 +42263,7 @@
         <v>264297</v>
       </c>
       <c r="AU299" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV299" s="1" t="s">
         <v>41</v>
@@ -42330,7 +42274,7 @@
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B300" s="2" t="n">
         <v>294.22</v>
@@ -42416,7 +42360,7 @@
       <c r="AC300" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="AD300" s="41" t="n">
+      <c r="AD300" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE300" s="13" t="s">
@@ -42454,7 +42398,7 @@
         <v>316923</v>
       </c>
       <c r="AU300" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV300" s="1" t="s">
         <v>41</v>
@@ -42465,7 +42409,7 @@
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B301" s="2" t="n">
         <v>21.67</v>
@@ -42535,7 +42479,7 @@
         <v>1</v>
       </c>
       <c r="AA301" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB301" s="12"/>
       <c r="AC301" s="12" t="s">
@@ -42573,11 +42517,11 @@
       <c r="AS301" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT301" s="68" t="s">
+      <c r="AT301" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU301" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV301" s="1" t="s">
         <v>59</v>
@@ -42588,7 +42532,7 @@
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="34" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B302" s="2" t="n">
         <v>102.94</v>
@@ -42702,7 +42646,7 @@
         <v>409239</v>
       </c>
       <c r="AU302" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV302" s="1" t="s">
         <v>59</v>
@@ -42712,8 +42656,8 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="43" t="s">
-        <v>572</v>
+      <c r="A303" s="42" t="s">
+        <v>573</v>
       </c>
       <c r="B303" s="2" t="n">
         <v>119.48</v>
@@ -42789,7 +42733,7 @@
         <v>2</v>
       </c>
       <c r="AC303" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AD303" s="13"/>
       <c r="AE303" s="13" t="s">
@@ -42827,7 +42771,7 @@
         <v>446213</v>
       </c>
       <c r="AU303" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV303" s="1" t="s">
         <v>59</v>
@@ -42837,8 +42781,8 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="43" t="s">
-        <v>574</v>
+      <c r="A304" s="42" t="s">
+        <v>575</v>
       </c>
       <c r="B304" s="2" t="n">
         <v>122.2</v>
@@ -42916,7 +42860,7 @@
       <c r="AC304" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="AD304" s="41" t="n">
+      <c r="AD304" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE304" s="13" t="s">
@@ -42954,7 +42898,7 @@
         <v>519593</v>
       </c>
       <c r="AU304" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV304" s="1" t="s">
         <v>59</v>
@@ -42965,7 +42909,7 @@
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="34" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B305" s="2" t="n">
         <v>133.88</v>
@@ -43035,19 +42979,19 @@
         <v>2</v>
       </c>
       <c r="AA305" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AB305" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC305" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="AD305" s="41" t="n">
+        <v>578</v>
+      </c>
+      <c r="AD305" s="40" t="n">
         <v>5</v>
       </c>
       <c r="AE305" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF305" s="8"/>
       <c r="AG305" s="8" t="s">
@@ -43081,7 +43025,7 @@
         <v>419601</v>
       </c>
       <c r="AU305" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV305" s="1" t="s">
         <v>59</v>
@@ -43092,7 +43036,7 @@
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="32" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B306" s="2" t="n">
         <v>172.97</v>
@@ -43170,7 +43114,7 @@
       <c r="AC306" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="AD306" s="41" t="n">
+      <c r="AD306" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE306" s="13" t="s">
@@ -43182,7 +43126,7 @@
       <c r="AG306" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="AH306" s="69" t="n">
+      <c r="AH306" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI306" s="14" t="s">
@@ -43212,7 +43156,7 @@
         <v>450580</v>
       </c>
       <c r="AU306" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV306" s="1" t="s">
         <v>59</v>
@@ -43222,8 +43166,8 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="43" t="s">
-        <v>580</v>
+      <c r="A307" s="42" t="s">
+        <v>581</v>
       </c>
       <c r="B307" s="2" t="n">
         <v>188.91</v>
@@ -43293,19 +43237,19 @@
         <v>2</v>
       </c>
       <c r="AA307" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AB307" s="23" t="n">
         <v>4</v>
       </c>
       <c r="AC307" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="AD307" s="41" t="n">
+        <v>583</v>
+      </c>
+      <c r="AD307" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE307" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF307" s="8"/>
       <c r="AG307" s="8" t="s">
@@ -43339,7 +43283,7 @@
         <v>438208</v>
       </c>
       <c r="AU307" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV307" s="1" t="s">
         <v>59</v>
@@ -43349,8 +43293,8 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="43" t="s">
-        <v>584</v>
+      <c r="A308" s="42" t="s">
+        <v>585</v>
       </c>
       <c r="B308" s="2" t="n">
         <v>213.76</v>
@@ -43428,7 +43372,7 @@
       <c r="AC308" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AD308" s="41" t="n">
+      <c r="AD308" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE308" s="13" t="s">
@@ -43468,7 +43412,7 @@
         <v>628736</v>
       </c>
       <c r="AU308" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV308" s="1" t="s">
         <v>59</v>
@@ -43479,7 +43423,7 @@
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="32" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B309" s="2" t="n">
         <v>252.67</v>
@@ -43557,7 +43501,7 @@
       <c r="AC309" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AD309" s="41" t="n">
+      <c r="AD309" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE309" s="13" t="s">
@@ -43595,7 +43539,7 @@
         <v>1012645</v>
       </c>
       <c r="AU309" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV309" s="1" t="s">
         <v>59</v>
@@ -43605,8 +43549,8 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="45" t="s">
-        <v>586</v>
+      <c r="A310" s="44" t="s">
+        <v>587</v>
       </c>
       <c r="B310" s="2" t="n">
         <v>272.6</v>
@@ -43676,13 +43620,13 @@
         <v>2</v>
       </c>
       <c r="AA310" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AB310" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC310" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD310" s="13"/>
       <c r="AE310" s="13" t="s">
@@ -43720,7 +43664,7 @@
         <v>523324</v>
       </c>
       <c r="AU310" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV310" s="1" t="s">
         <v>59</v>
@@ -43730,8 +43674,8 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="95" t="s">
-        <v>589</v>
+      <c r="A311" s="90" t="s">
+        <v>590</v>
       </c>
       <c r="B311" s="2" t="n">
         <v>9.75</v>
@@ -43843,7 +43787,7 @@
         <v>0</v>
       </c>
       <c r="AU311" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV311" s="1" t="s">
         <v>41</v>
@@ -43854,7 +43798,7 @@
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="35" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B312" s="2" t="n">
         <v>9.75</v>
@@ -43924,7 +43868,7 @@
         <v>1</v>
       </c>
       <c r="AA312" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AB312" s="12"/>
       <c r="AC312" s="12" t="s">
@@ -43966,7 +43910,7 @@
         <v>33</v>
       </c>
       <c r="AU312" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV312" s="1" t="s">
         <v>41</v>
@@ -43976,8 +43920,8 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="95" t="s">
-        <v>593</v>
+      <c r="A313" s="90" t="s">
+        <v>594</v>
       </c>
       <c r="B313" s="2" t="n">
         <v>10.5</v>
@@ -44089,7 +44033,7 @@
         <v>0</v>
       </c>
       <c r="AU313" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV313" s="1" t="s">
         <v>41</v>
@@ -44099,8 +44043,8 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="42" t="s">
-        <v>594</v>
+      <c r="A314" s="41" t="s">
+        <v>595</v>
       </c>
       <c r="B314" s="2" t="n">
         <v>13.13</v>
@@ -44212,7 +44156,7 @@
         <v>0</v>
       </c>
       <c r="AU314" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV314" s="1" t="s">
         <v>41</v>
@@ -44223,7 +44167,7 @@
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B315" s="2" t="n">
         <v>21</v>
@@ -44337,7 +44281,7 @@
         <v>0</v>
       </c>
       <c r="AU315" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV315" s="1" t="s">
         <v>41</v>
@@ -44348,7 +44292,7 @@
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B316" s="2" t="n">
         <v>37.14</v>
@@ -44462,7 +44406,7 @@
         <v>0</v>
       </c>
       <c r="AU316" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV316" s="1" t="s">
         <v>41</v>
@@ -44473,7 +44417,7 @@
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B317" s="2" t="n">
         <v>42.25</v>
@@ -44543,7 +44487,7 @@
         <v>1</v>
       </c>
       <c r="AA317" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB317" s="12"/>
       <c r="AC317" s="12" t="s">
@@ -44585,7 +44529,7 @@
         <v>0</v>
       </c>
       <c r="AU317" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV317" s="1" t="s">
         <v>41</v>
@@ -44596,7 +44540,7 @@
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B318" s="2" t="n">
         <v>53.34</v>
@@ -44710,7 +44654,7 @@
         <v>0</v>
       </c>
       <c r="AU318" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV318" s="1" t="s">
         <v>41</v>
@@ -44721,7 +44665,7 @@
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B319" s="2" t="n">
         <v>60.1</v>
@@ -44835,7 +44779,7 @@
         <v>0</v>
       </c>
       <c r="AU319" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV319" s="1" t="s">
         <v>41</v>
@@ -44846,7 +44790,7 @@
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="34" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B320" s="2" t="n">
         <v>63.9</v>
@@ -44920,19 +44864,19 @@
         <v>2</v>
       </c>
       <c r="AA320" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB320" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC320" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD320" s="41" t="n">
+        <v>604</v>
+      </c>
+      <c r="AD320" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE320" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF320" s="8"/>
       <c r="AG320" s="8" t="s">
@@ -44966,7 +44910,7 @@
         <v>0</v>
       </c>
       <c r="AU320" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV320" s="1" t="s">
         <v>41</v>
@@ -44976,8 +44920,8 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="95" t="s">
-        <v>605</v>
+      <c r="A321" s="90" t="s">
+        <v>606</v>
       </c>
       <c r="B321" s="2" t="n">
         <v>68.37</v>
@@ -45091,7 +45035,7 @@
         <v>0</v>
       </c>
       <c r="AU321" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV321" s="1" t="s">
         <v>41</v>
@@ -45102,7 +45046,7 @@
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B322" s="2" t="n">
         <v>68.37</v>
@@ -45216,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="AU322" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV322" s="1" t="s">
         <v>41</v>
@@ -45227,7 +45171,7 @@
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B323" s="2" t="n">
         <v>72.16</v>
@@ -45343,7 +45287,7 @@
         <v>0</v>
       </c>
       <c r="AU323" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV323" s="1" t="s">
         <v>41</v>
@@ -45354,7 +45298,7 @@
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B324" s="2" t="n">
         <v>74.79</v>
@@ -45468,7 +45412,7 @@
         <v>33</v>
       </c>
       <c r="AU324" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV324" s="1" t="s">
         <v>41</v>
@@ -45479,7 +45423,7 @@
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B325" s="2" t="n">
         <v>79.86</v>
@@ -45597,7 +45541,7 @@
         <v>0</v>
       </c>
       <c r="AU325" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV325" s="1" t="s">
         <v>41</v>
@@ -45608,7 +45552,7 @@
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="34" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B326" s="2" t="n">
         <v>80.17</v>
@@ -45682,25 +45626,25 @@
         <v>2</v>
       </c>
       <c r="AA326" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB326" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC326" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD326" s="41" t="n">
+        <v>604</v>
+      </c>
+      <c r="AD326" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE326" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF326" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AG326" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AH326" s="14"/>
       <c r="AI326" s="14" t="s">
@@ -45730,7 +45674,7 @@
         <v>0</v>
       </c>
       <c r="AU326" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV326" s="1" t="s">
         <v>41</v>
@@ -45741,7 +45685,7 @@
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B327" s="2" t="n">
         <v>81.76</v>
@@ -45859,7 +45803,7 @@
         <v>0</v>
       </c>
       <c r="AU327" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV327" s="1" t="s">
         <v>41</v>
@@ -45870,7 +45814,7 @@
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="34" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B328" s="2" t="n">
         <v>85.4</v>
@@ -45944,13 +45888,13 @@
         <v>4</v>
       </c>
       <c r="AA328" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AB328" s="23" t="n">
         <v>4</v>
       </c>
       <c r="AC328" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD328" s="13"/>
       <c r="AE328" s="13" t="s">
@@ -45988,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="AU328" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV328" s="1" t="s">
         <v>41</v>
@@ -45999,7 +45943,7 @@
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B329" s="2" t="n">
         <v>86.07</v>
@@ -46117,7 +46061,7 @@
         <v>33</v>
       </c>
       <c r="AU329" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV329" s="1" t="s">
         <v>41</v>
@@ -46127,8 +46071,8 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="43" t="s">
-        <v>616</v>
+      <c r="A330" s="42" t="s">
+        <v>617</v>
       </c>
       <c r="B330" s="2" t="n">
         <v>88.32</v>
@@ -46242,7 +46186,7 @@
         <v>33</v>
       </c>
       <c r="AU330" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV330" s="1" t="s">
         <v>41</v>
@@ -46253,7 +46197,7 @@
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="34" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B331" s="2" t="n">
         <v>89.75</v>
@@ -46327,19 +46271,19 @@
         <v>1</v>
       </c>
       <c r="AA331" s="11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB331" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC331" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD331" s="41" t="n">
+        <v>619</v>
+      </c>
+      <c r="AD331" s="40" t="n">
         <v>6</v>
       </c>
       <c r="AE331" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF331" s="8"/>
       <c r="AG331" s="8" t="s">
@@ -46373,7 +46317,7 @@
         <v>0</v>
       </c>
       <c r="AU331" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV331" s="1" t="s">
         <v>41</v>
@@ -46384,7 +46328,7 @@
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="34" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B332" s="2" t="n">
         <v>89.91</v>
@@ -46502,7 +46446,7 @@
         <v>0</v>
       </c>
       <c r="AU332" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV332" s="1" t="s">
         <v>41</v>
@@ -46513,7 +46457,7 @@
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="34" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B333" s="2" t="n">
         <v>96.66</v>
@@ -46587,19 +46531,19 @@
         <v>2</v>
       </c>
       <c r="AA333" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB333" s="23" t="n">
         <v>3</v>
       </c>
       <c r="AC333" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD333" s="41" t="n">
+        <v>603</v>
+      </c>
+      <c r="AD333" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE333" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF333" s="8"/>
       <c r="AG333" s="8" t="s">
@@ -46633,7 +46577,7 @@
         <v>0</v>
       </c>
       <c r="AU333" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV333" s="1" t="s">
         <v>41</v>
@@ -46644,7 +46588,7 @@
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B334" s="2" t="n">
         <v>100.19</v>
@@ -46762,7 +46706,7 @@
         <v>33</v>
       </c>
       <c r="AU334" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV334" s="1" t="s">
         <v>41</v>
@@ -46773,7 +46717,7 @@
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="34" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B335" s="2" t="n">
         <v>105.36</v>
@@ -46891,7 +46835,7 @@
         <v>33</v>
       </c>
       <c r="AU335" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV335" s="1" t="s">
         <v>41</v>
@@ -46902,7 +46846,7 @@
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="30" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B336" s="2" t="n">
         <v>111.85</v>
@@ -47020,7 +46964,7 @@
         <v>0</v>
       </c>
       <c r="AU336" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV336" s="1" t="s">
         <v>41</v>
@@ -47031,7 +46975,7 @@
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B337" s="2" t="n">
         <v>118.35</v>
@@ -47151,7 +47095,7 @@
         <v>0</v>
       </c>
       <c r="AU337" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV337" s="1" t="s">
         <v>41</v>
@@ -47162,7 +47106,7 @@
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B338" s="2" t="n">
         <v>120.01</v>
@@ -47280,7 +47224,7 @@
         <v>0</v>
       </c>
       <c r="AU338" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV338" s="1" t="s">
         <v>41</v>
@@ -47290,8 +47234,8 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="45" t="s">
-        <v>626</v>
+      <c r="A339" s="44" t="s">
+        <v>627</v>
       </c>
       <c r="B339" s="2" t="n">
         <v>126.81</v>
@@ -47409,7 +47353,7 @@
         <v>0</v>
       </c>
       <c r="AU339" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV339" s="1" t="s">
         <v>41</v>
@@ -47419,8 +47363,8 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="43" t="s">
-        <v>627</v>
+      <c r="A340" s="42" t="s">
+        <v>628</v>
       </c>
       <c r="B340" s="2" t="n">
         <v>126.86</v>
@@ -47538,7 +47482,7 @@
         <v>0</v>
       </c>
       <c r="AU340" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV340" s="1" t="s">
         <v>41</v>
@@ -47549,7 +47493,7 @@
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B341" s="2" t="n">
         <v>127.53</v>
@@ -47667,7 +47611,7 @@
         <v>0</v>
       </c>
       <c r="AU341" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV341" s="1" t="s">
         <v>41</v>
@@ -47678,7 +47622,7 @@
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B342" s="2" t="n">
         <v>132.26</v>
@@ -47800,7 +47744,7 @@
         <v>0</v>
       </c>
       <c r="AU342" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV342" s="1" t="s">
         <v>41</v>
@@ -47811,7 +47755,7 @@
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B343" s="2" t="n">
         <v>133.86</v>
@@ -47931,7 +47875,7 @@
         <v>33</v>
       </c>
       <c r="AU343" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV343" s="1" t="s">
         <v>41</v>
@@ -47942,7 +47886,7 @@
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B344" s="2" t="n">
         <v>134.04</v>
@@ -48062,7 +48006,7 @@
         <v>33</v>
       </c>
       <c r="AU344" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV344" s="1" t="s">
         <v>41</v>
@@ -48073,7 +48017,7 @@
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B345" s="2" t="n">
         <v>135.54</v>
@@ -48191,7 +48135,7 @@
         <v>33</v>
       </c>
       <c r="AU345" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV345" s="1" t="s">
         <v>41</v>
@@ -48201,8 +48145,8 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="43" t="s">
-        <v>633</v>
+      <c r="A346" s="42" t="s">
+        <v>634</v>
       </c>
       <c r="B346" s="2" t="n">
         <v>137.01</v>
@@ -48320,7 +48264,7 @@
         <v>0</v>
       </c>
       <c r="AU346" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV346" s="1" t="s">
         <v>41</v>
@@ -48331,7 +48275,7 @@
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B347" s="2" t="n">
         <v>139.97</v>
@@ -48449,7 +48393,7 @@
         <v>33</v>
       </c>
       <c r="AU347" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV347" s="1" t="s">
         <v>41</v>
@@ -48459,8 +48403,8 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="43" t="s">
-        <v>635</v>
+      <c r="A348" s="42" t="s">
+        <v>636</v>
       </c>
       <c r="B348" s="2" t="n">
         <v>149.46</v>
@@ -48578,7 +48522,7 @@
         <v>0</v>
       </c>
       <c r="AU348" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV348" s="1" t="s">
         <v>41</v>
@@ -48589,7 +48533,7 @@
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B349" s="2" t="n">
         <v>149.85</v>
@@ -48707,7 +48651,7 @@
         <v>0</v>
       </c>
       <c r="AU349" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV349" s="1" t="s">
         <v>41</v>
@@ -48718,7 +48662,7 @@
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B350" s="2" t="n">
         <v>164.76</v>
@@ -48836,7 +48780,7 @@
         <v>0</v>
       </c>
       <c r="AU350" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV350" s="1" t="s">
         <v>41</v>
@@ -48847,7 +48791,7 @@
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B351" s="2" t="n">
         <v>176.62</v>
@@ -48933,7 +48877,7 @@
       <c r="AC351" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD351" s="41" t="n">
+      <c r="AD351" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE351" s="13" t="s">
@@ -48971,7 +48915,7 @@
         <v>0</v>
       </c>
       <c r="AU351" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV351" s="1" t="s">
         <v>41</v>
@@ -48982,7 +48926,7 @@
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B352" s="2" t="n">
         <v>192.66</v>
@@ -49102,7 +49046,7 @@
         <v>0</v>
       </c>
       <c r="AU352" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV352" s="1" t="s">
         <v>41</v>
@@ -49113,7 +49057,7 @@
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="32" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B353" s="2" t="n">
         <v>208.84</v>
@@ -49235,7 +49179,7 @@
         <v>0</v>
       </c>
       <c r="AU353" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV353" s="1" t="s">
         <v>41</v>
@@ -49245,8 +49189,8 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="45" t="s">
-        <v>641</v>
+      <c r="A354" s="44" t="s">
+        <v>642</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>212.03</v>
@@ -49364,7 +49308,7 @@
         <v>33</v>
       </c>
       <c r="AU354" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV354" s="1" t="s">
         <v>41</v>
@@ -49375,7 +49319,7 @@
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B355" s="2" t="n">
         <v>293.59</v>
@@ -49497,7 +49441,7 @@
         <v>0</v>
       </c>
       <c r="AU355" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV355" s="1" t="s">
         <v>41</v>
@@ -49508,7 +49452,7 @@
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>0</v>
@@ -49618,7 +49562,7 @@
         <v>0</v>
       </c>
       <c r="AU356" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV356" s="1" t="s">
         <v>59</v>
@@ -49628,8 +49572,8 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="42" t="s">
-        <v>644</v>
+      <c r="A357" s="41" t="s">
+        <v>645</v>
       </c>
       <c r="B357" s="2" t="n">
         <v>45.75</v>
@@ -49743,7 +49687,7 @@
         <v>33</v>
       </c>
       <c r="AU357" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV357" s="1" t="s">
         <v>59</v>
@@ -49754,7 +49698,7 @@
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="32" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B358" s="2" t="n">
         <v>108.97</v>
@@ -49868,7 +49812,7 @@
         <v>0</v>
       </c>
       <c r="AU358" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV358" s="1" t="s">
         <v>59</v>
@@ -49878,8 +49822,8 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="45" t="s">
-        <v>646</v>
+      <c r="A359" s="44" t="s">
+        <v>647</v>
       </c>
       <c r="B359" s="2" t="n">
         <v>126.81</v>
@@ -49999,7 +49943,7 @@
         <v>33</v>
       </c>
       <c r="AU359" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV359" s="1" t="s">
         <v>59</v>
@@ -50010,7 +49954,7 @@
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>93.38</v>
@@ -50088,7 +50032,7 @@
       <c r="AC360" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD360" s="41" t="n">
+      <c r="AD360" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE360" s="13" t="s">
@@ -50100,7 +50044,7 @@
       <c r="AG360" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AH360" s="69" t="n">
+      <c r="AH360" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI360" s="14" t="s">
@@ -50130,10 +50074,10 @@
         <v>33</v>
       </c>
       <c r="AU360" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV360" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AW360" s="1" t="s">
         <v>36</v>
@@ -50141,7 +50085,7 @@
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>187.55</v>
@@ -50219,7 +50163,7 @@
       <c r="AC361" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD361" s="41" t="n">
+      <c r="AD361" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE361" s="13" t="s">
@@ -50231,19 +50175,19 @@
       <c r="AG361" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AH361" s="69" t="n">
+      <c r="AH361" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI361" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AJ361" s="89" t="n">
+      <c r="AJ361" s="84" t="n">
         <v>2</v>
       </c>
       <c r="AK361" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AL361" s="90" t="n">
+      <c r="AL361" s="85" t="n">
         <v>2</v>
       </c>
       <c r="AM361" s="16" t="s">
@@ -50255,7 +50199,7 @@
       <c r="AO361" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AP361" s="106" t="n">
+      <c r="AP361" s="100" t="n">
         <v>2</v>
       </c>
       <c r="AQ361" s="17" t="s">
@@ -50269,10 +50213,10 @@
         <v>33</v>
       </c>
       <c r="AU361" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV361" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AW361" s="1" t="s">
         <v>36</v>
@@ -50280,7 +50224,7 @@
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B362" s="2" t="n">
         <v>291.97</v>
@@ -50358,7 +50302,7 @@
       <c r="AC362" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD362" s="41" t="n">
+      <c r="AD362" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE362" s="13" t="s">
@@ -50370,19 +50314,19 @@
       <c r="AG362" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AH362" s="69" t="n">
+      <c r="AH362" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI362" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AJ362" s="89" t="n">
+      <c r="AJ362" s="84" t="n">
         <v>3</v>
       </c>
       <c r="AK362" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AL362" s="90" t="n">
+      <c r="AL362" s="85" t="n">
         <v>2</v>
       </c>
       <c r="AM362" s="16" t="s">
@@ -50394,7 +50338,7 @@
       <c r="AO362" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AP362" s="106" t="n">
+      <c r="AP362" s="100" t="n">
         <v>5</v>
       </c>
       <c r="AQ362" s="17" t="s">
@@ -50408,10 +50352,10 @@
         <v>33</v>
       </c>
       <c r="AU362" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV362" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AW362" s="1" t="s">
         <v>36</v>
@@ -50419,7 +50363,7 @@
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B363" s="2" t="n">
         <v>327.66</v>
@@ -50497,7 +50441,7 @@
       <c r="AC363" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD363" s="41" t="n">
+      <c r="AD363" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE363" s="13" t="s">
@@ -50509,19 +50453,19 @@
       <c r="AG363" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AH363" s="69" t="n">
+      <c r="AH363" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI363" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="AJ363" s="89" t="n">
+      <c r="AJ363" s="84" t="n">
         <v>2</v>
       </c>
       <c r="AK363" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AL363" s="90" t="n">
+      <c r="AL363" s="85" t="n">
         <v>3</v>
       </c>
       <c r="AM363" s="16" t="s">
@@ -50533,7 +50477,7 @@
       <c r="AO363" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP363" s="106" t="n">
+      <c r="AP363" s="100" t="n">
         <v>2</v>
       </c>
       <c r="AQ363" s="17" t="s">
@@ -50549,10 +50493,10 @@
         <v>33</v>
       </c>
       <c r="AU363" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV363" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AW363" s="1" t="s">
         <v>36</v>
@@ -50560,7 +50504,7 @@
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B364" s="2" t="n">
         <v>397.17</v>
@@ -50638,7 +50582,7 @@
       <c r="AC364" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AD364" s="41" t="n">
+      <c r="AD364" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE364" s="13" t="s">
@@ -50650,19 +50594,19 @@
       <c r="AG364" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="AH364" s="69" t="n">
+      <c r="AH364" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI364" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="AJ364" s="89" t="n">
+      <c r="AJ364" s="84" t="n">
         <v>2</v>
       </c>
       <c r="AK364" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AL364" s="90" t="n">
+      <c r="AL364" s="85" t="n">
         <v>3</v>
       </c>
       <c r="AM364" s="16" t="s">
@@ -50674,7 +50618,7 @@
       <c r="AO364" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP364" s="106" t="n">
+      <c r="AP364" s="100" t="n">
         <v>2</v>
       </c>
       <c r="AQ364" s="17" t="s">
@@ -50690,10 +50634,10 @@
         <v>33</v>
       </c>
       <c r="AU364" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV364" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AW364" s="1" t="s">
         <v>36</v>
@@ -50701,7 +50645,7 @@
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>641.06</v>
@@ -50779,31 +50723,31 @@
       <c r="AC365" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="AD365" s="41" t="n">
+      <c r="AD365" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE365" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF365" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AG365" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH365" s="69" t="n">
+        <v>657</v>
+      </c>
+      <c r="AH365" s="65" t="n">
         <v>2</v>
       </c>
       <c r="AI365" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="AJ365" s="89" t="n">
+        <v>658</v>
+      </c>
+      <c r="AJ365" s="84" t="n">
         <v>2</v>
       </c>
       <c r="AK365" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="AL365" s="90" t="n">
+        <v>659</v>
+      </c>
+      <c r="AL365" s="85" t="n">
         <v>2</v>
       </c>
       <c r="AM365" s="16" t="s">
@@ -50825,10 +50769,10 @@
         <v>33</v>
       </c>
       <c r="AU365" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV365" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AW365" s="1" t="s">
         <v>36</v>
@@ -50836,7 +50780,7 @@
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B366" s="2" t="n">
         <v>162.68</v>
@@ -50906,13 +50850,13 @@
         <v>2</v>
       </c>
       <c r="AA366" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AB366" s="23" t="n">
         <v>3</v>
       </c>
       <c r="AC366" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AD366" s="13"/>
       <c r="AE366" s="13" t="s">
@@ -50950,10 +50894,10 @@
         <v>33</v>
       </c>
       <c r="AU366" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV366" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AW366" s="1" t="s">
         <v>36</v>
@@ -50961,7 +50905,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B367" s="2" t="n">
         <v>379.02</v>
@@ -51031,13 +50975,13 @@
         <v>6</v>
       </c>
       <c r="AA367" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AB367" s="23" t="n">
         <v>5</v>
       </c>
       <c r="AC367" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AD367" s="13"/>
       <c r="AE367" s="13" t="s">
@@ -51075,18 +51019,18 @@
         <v>33</v>
       </c>
       <c r="AU367" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV367" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AW367" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="80" t="s">
-        <v>665</v>
+      <c r="A368" s="76" t="s">
+        <v>666</v>
       </c>
       <c r="B368" s="2" t="n">
         <v>84.11</v>
@@ -51156,7 +51100,7 @@
         <v>1</v>
       </c>
       <c r="AA368" s="11" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AB368" s="12"/>
       <c r="AC368" s="12" t="s">
@@ -51198,18 +51142,18 @@
         <v>33</v>
       </c>
       <c r="AU368" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV368" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AW368" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="80" t="s">
-        <v>668</v>
+      <c r="A369" s="76" t="s">
+        <v>669</v>
       </c>
       <c r="B369" s="2" t="n">
         <v>716.51</v>
@@ -51279,13 +51223,13 @@
         <v>1</v>
       </c>
       <c r="AA369" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AB369" s="23" t="n">
         <v>8</v>
       </c>
       <c r="AC369" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AD369" s="13"/>
       <c r="AE369" s="13" t="s">
@@ -51323,10 +51267,10 @@
         <v>33</v>
       </c>
       <c r="AU369" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV369" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AW369" s="1" t="s">
         <v>36</v>
@@ -51334,7 +51278,7 @@
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>800.29</v>
@@ -51404,13 +51348,13 @@
         <v>4</v>
       </c>
       <c r="AA370" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB370" s="23" t="n">
         <v>5</v>
       </c>
       <c r="AC370" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AD370" s="13"/>
       <c r="AE370" s="13" t="s">
@@ -51448,10 +51392,10 @@
         <v>33</v>
       </c>
       <c r="AU370" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV370" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AW370" s="1" t="s">
         <v>36</v>
@@ -51459,7 +51403,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B371" s="2" t="n">
         <v>838.39</v>
@@ -51529,13 +51473,13 @@
         <v>4</v>
       </c>
       <c r="AA371" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB371" s="23" t="n">
         <v>5</v>
       </c>
       <c r="AC371" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AD371" s="13"/>
       <c r="AE371" s="13" t="s">
@@ -51573,10 +51517,10 @@
         <v>33</v>
       </c>
       <c r="AU371" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV371" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AW371" s="1" t="s">
         <v>36</v>
@@ -51584,7 +51528,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B372" s="2" t="n">
         <v>433.05</v>
@@ -51662,7 +51606,7 @@
       <c r="AC372" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="AD372" s="41" t="n">
+      <c r="AD372" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE372" s="13" t="s">
@@ -51700,10 +51644,10 @@
         <v>33</v>
       </c>
       <c r="AU372" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV372" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AW372" s="1" t="s">
         <v>36</v>
@@ -51711,7 +51655,7 @@
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>85.05</v>
@@ -51825,10 +51769,10 @@
         <v>33</v>
       </c>
       <c r="AU373" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV373" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AW373" s="1" t="s">
         <v>36</v>
@@ -51836,7 +51780,7 @@
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>153.45</v>
@@ -51950,18 +51894,18 @@
         <v>33</v>
       </c>
       <c r="AU374" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV374" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AW374" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="80" t="s">
-        <v>679</v>
+      <c r="A375" s="76" t="s">
+        <v>680</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>2191.67</v>
@@ -52031,31 +51975,31 @@
         <v>6</v>
       </c>
       <c r="AA375" s="11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AB375" s="23" t="n">
         <v>6</v>
       </c>
       <c r="AC375" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="AD375" s="41" t="n">
+        <v>682</v>
+      </c>
+      <c r="AD375" s="40" t="n">
         <v>8</v>
       </c>
       <c r="AE375" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AF375" s="7" t="n">
         <v>8</v>
       </c>
       <c r="AG375" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="AH375" s="69" t="n">
+        <v>684</v>
+      </c>
+      <c r="AH375" s="65" t="n">
         <v>4</v>
       </c>
       <c r="AI375" s="14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AJ375" s="15"/>
       <c r="AK375" s="15" t="s">
@@ -52081,10 +52025,10 @@
         <v>33</v>
       </c>
       <c r="AU375" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV375" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AW375" s="1" t="s">
         <v>36</v>
@@ -52092,7 +52036,7 @@
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>167.71</v>
@@ -52162,7 +52106,7 @@
         <v>4</v>
       </c>
       <c r="AA376" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB376" s="12"/>
       <c r="AC376" s="12" t="s">
@@ -52204,10 +52148,10 @@
         <v>33</v>
       </c>
       <c r="AU376" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV376" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW376" s="1" t="s">
         <v>36</v>
@@ -52215,7 +52159,7 @@
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>333.92</v>
@@ -52285,19 +52229,19 @@
         <v>4</v>
       </c>
       <c r="AA377" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB377" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC377" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD377" s="41" t="n">
+        <v>691</v>
+      </c>
+      <c r="AD377" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE377" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF377" s="8"/>
       <c r="AG377" s="8" t="s">
@@ -52331,10 +52275,10 @@
         <v>33</v>
       </c>
       <c r="AU377" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV377" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW377" s="1" t="s">
         <v>36</v>
@@ -52342,7 +52286,7 @@
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>673.95</v>
@@ -52412,25 +52356,25 @@
         <v>8</v>
       </c>
       <c r="AA378" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB378" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC378" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD378" s="41" t="n">
+        <v>691</v>
+      </c>
+      <c r="AD378" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE378" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF378" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AG378" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH378" s="14"/>
       <c r="AI378" s="14" t="s">
@@ -52460,10 +52404,10 @@
         <v>33</v>
       </c>
       <c r="AU378" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV378" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW378" s="1" t="s">
         <v>36</v>
@@ -52471,7 +52415,7 @@
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B379" s="2" t="n">
         <v>823.73</v>
@@ -52541,25 +52485,25 @@
         <v>8</v>
       </c>
       <c r="AA379" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB379" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC379" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD379" s="41" t="n">
+        <v>691</v>
+      </c>
+      <c r="AD379" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE379" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF379" s="7" t="n">
         <v>6</v>
       </c>
       <c r="AG379" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH379" s="14"/>
       <c r="AI379" s="14" t="s">
@@ -52589,10 +52533,10 @@
         <v>33</v>
       </c>
       <c r="AU379" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV379" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW379" s="1" t="s">
         <v>36</v>
@@ -52600,7 +52544,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B380" s="2" t="n">
         <v>890.62</v>
@@ -52670,31 +52614,31 @@
         <v>8</v>
       </c>
       <c r="AA380" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AB380" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC380" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD380" s="41" t="n">
+        <v>691</v>
+      </c>
+      <c r="AD380" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE380" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF380" s="7" t="n">
         <v>6</v>
       </c>
       <c r="AG380" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="AH380" s="69" t="n">
+        <v>694</v>
+      </c>
+      <c r="AH380" s="65" t="n">
         <v>1</v>
       </c>
       <c r="AI380" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AJ380" s="15"/>
       <c r="AK380" s="15" t="s">
@@ -52720,18 +52664,18 @@
         <v>33</v>
       </c>
       <c r="AU380" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AV380" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW380" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="80" t="s">
-        <v>697</v>
+      <c r="A381" s="76" t="s">
+        <v>698</v>
       </c>
       <c r="B381" s="2" t="n">
         <v>7.08</v>
@@ -52801,7 +52745,7 @@
         <v>1</v>
       </c>
       <c r="AA381" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB381" s="12"/>
       <c r="AC381" s="12" t="s">
@@ -52843,18 +52787,18 @@
         <v>2852</v>
       </c>
       <c r="AU381" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV381" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW381" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="80" t="s">
-        <v>700</v>
+      <c r="A382" s="76" t="s">
+        <v>701</v>
       </c>
       <c r="B382" s="2" t="n">
         <v>250</v>
@@ -52924,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AA382" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AB382" s="12"/>
       <c r="AC382" s="12" t="s">
@@ -52966,18 +52910,18 @@
         <v>1722</v>
       </c>
       <c r="AU382" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV382" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW382" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="80" t="s">
-        <v>701</v>
+      <c r="A383" s="76" t="s">
+        <v>702</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>88.74</v>
@@ -53018,7 +52962,7 @@
       <c r="N383" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="O383" s="51" t="n">
+      <c r="O383" s="48" t="n">
         <v>118</v>
       </c>
       <c r="P383" s="6" t="n">
@@ -53055,7 +52999,7 @@
         <v>2</v>
       </c>
       <c r="AA383" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB383" s="12"/>
       <c r="AC383" s="12" t="s">
@@ -53097,18 +53041,18 @@
         <v>10442</v>
       </c>
       <c r="AU383" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV383" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW383" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="80" t="s">
-        <v>702</v>
+      <c r="A384" s="76" t="s">
+        <v>703</v>
       </c>
       <c r="B384" s="2" t="n">
         <v>158.27</v>
@@ -53149,7 +53093,7 @@
       <c r="N384" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="O384" s="58" t="n">
+      <c r="O384" s="55" t="n">
         <v>52</v>
       </c>
       <c r="P384" s="6" t="n">
@@ -53186,13 +53130,13 @@
         <v>2</v>
       </c>
       <c r="AA384" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB384" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AC384" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AD384" s="13"/>
       <c r="AE384" s="13" t="s">
@@ -53230,18 +53174,18 @@
         <v>8257</v>
       </c>
       <c r="AU384" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV384" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW384" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="80" t="s">
-        <v>704</v>
+      <c r="A385" s="76" t="s">
+        <v>705</v>
       </c>
       <c r="B385" s="2" t="n">
         <v>255.3</v>
@@ -53282,7 +53226,7 @@
       <c r="N385" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O385" s="88" t="n">
+      <c r="O385" s="83" t="n">
         <v>237</v>
       </c>
       <c r="P385" s="6" t="n">
@@ -53311,13 +53255,13 @@
         <v>2</v>
       </c>
       <c r="AA385" s="11" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AB385" s="23" t="n">
         <v>7</v>
       </c>
       <c r="AC385" s="12" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AD385" s="13"/>
       <c r="AE385" s="13" t="s">
@@ -53355,18 +53299,18 @@
         <v>60622</v>
       </c>
       <c r="AU385" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV385" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW385" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="80" t="s">
-        <v>706</v>
+      <c r="A386" s="76" t="s">
+        <v>707</v>
       </c>
       <c r="B386" s="2" t="n">
         <v>524.41</v>
@@ -53407,7 +53351,7 @@
       <c r="N386" s="6" t="n">
         <v>165</v>
       </c>
-      <c r="O386" s="82" t="n">
+      <c r="O386" s="24" t="n">
         <v>575</v>
       </c>
       <c r="P386" s="6" t="n">
@@ -53444,13 +53388,13 @@
         <v>5</v>
       </c>
       <c r="AA386" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AB386" s="23" t="n">
         <v>5</v>
       </c>
       <c r="AC386" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AD386" s="13"/>
       <c r="AE386" s="13" t="s">
@@ -53488,18 +53432,18 @@
         <v>301755</v>
       </c>
       <c r="AU386" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV386" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW386" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="107" t="s">
-        <v>708</v>
+      <c r="A387" s="101" t="s">
+        <v>709</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>4877.21</v>
@@ -53583,19 +53527,19 @@
         <v>5</v>
       </c>
       <c r="AC387" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="AD387" s="41" t="n">
+        <v>710</v>
+      </c>
+      <c r="AD387" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE387" s="13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF387" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AG387" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AH387" s="14"/>
       <c r="AI387" s="14" t="s">
@@ -53625,18 +53569,18 @@
         <v>1111195</v>
       </c>
       <c r="AU387" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV387" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW387" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="107" t="s">
-        <v>713</v>
+      <c r="A388" s="101" t="s">
+        <v>714</v>
       </c>
       <c r="B388" s="2" t="n">
         <v>851.37</v>
@@ -53714,19 +53658,19 @@
         <v>3</v>
       </c>
       <c r="AA388" s="11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AB388" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AC388" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="AD388" s="41" t="n">
+        <v>716</v>
+      </c>
+      <c r="AD388" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE388" s="13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF388" s="8"/>
       <c r="AG388" s="8" t="s">
@@ -53760,18 +53704,18 @@
         <v>1602677</v>
       </c>
       <c r="AU388" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV388" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW388" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="80" t="s">
-        <v>717</v>
+      <c r="A389" s="76" t="s">
+        <v>718</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>1374.05</v>
@@ -53812,7 +53756,7 @@
       <c r="N389" s="6" t="n">
         <v>225</v>
       </c>
-      <c r="O389" s="108" t="n">
+      <c r="O389" s="102" t="n">
         <v>56</v>
       </c>
       <c r="P389" s="6" t="n">
@@ -53849,13 +53793,13 @@
         <v>4</v>
       </c>
       <c r="AA389" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AB389" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AC389" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AD389" s="13"/>
       <c r="AE389" s="13" t="s">
@@ -53900,7 +53844,7 @@
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="35" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B390" s="2" t="n">
         <v>104.85</v>
@@ -53978,7 +53922,7 @@
         <v>1</v>
       </c>
       <c r="AA390" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AB390" s="12"/>
       <c r="AC390" s="12" t="s">
@@ -54020,7 +53964,7 @@
         <v>33</v>
       </c>
       <c r="AU390" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV390" s="1"/>
       <c r="AW390" s="1" t="s">
@@ -54029,7 +53973,7 @@
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="35" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B391" s="2" t="n">
         <v>140.49</v>
@@ -54158,7 +54102,7 @@
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="35" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>488.49</v>
@@ -54242,7 +54186,7 @@
         <v>4</v>
       </c>
       <c r="AC392" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AD392" s="13"/>
       <c r="AE392" s="13" t="s">
@@ -54287,7 +54231,7 @@
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B393" s="2" t="n">
         <v>23.7</v>
@@ -54405,8 +54349,8 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="43" t="s">
-        <v>725</v>
+      <c r="A394" s="42" t="s">
+        <v>726</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>49.9</v>
@@ -54528,8 +54472,8 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="43" t="s">
-        <v>726</v>
+      <c r="A395" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="B395" s="2" t="n">
         <v>212.78</v>
@@ -54603,13 +54547,13 @@
         <v>2</v>
       </c>
       <c r="AA395" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AB395" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC395" s="12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AD395" s="13"/>
       <c r="AE395" s="13" t="s">
@@ -54653,8 +54597,8 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="43" t="s">
-        <v>729</v>
+      <c r="A396" s="42" t="s">
+        <v>730</v>
       </c>
       <c r="B396" s="2" t="n">
         <v>25.5</v>
@@ -54724,7 +54668,7 @@
         <v>1</v>
       </c>
       <c r="AA396" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AB396" s="12"/>
       <c r="AC396" s="12" t="s">
@@ -54772,8 +54716,8 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="43" t="s">
-        <v>731</v>
+      <c r="A397" s="42" t="s">
+        <v>732</v>
       </c>
       <c r="B397" s="2" t="n">
         <v>111</v>
@@ -54843,13 +54787,13 @@
         <v>2</v>
       </c>
       <c r="AA397" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AB397" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC397" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AD397" s="13"/>
       <c r="AE397" s="13" t="s">
@@ -54893,8 +54837,8 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="43" t="s">
-        <v>733</v>
+      <c r="A398" s="42" t="s">
+        <v>734</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>372.79</v>
@@ -54968,19 +54912,19 @@
         <v>2</v>
       </c>
       <c r="AA398" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AB398" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC398" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="AD398" s="41" t="n">
+        <v>731</v>
+      </c>
+      <c r="AD398" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE398" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF398" s="8"/>
       <c r="AG398" s="8" t="s">
@@ -55020,8 +54964,8 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="43" t="s">
-        <v>735</v>
+      <c r="A399" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>425.06</v>
@@ -55095,13 +55039,13 @@
         <v>4</v>
       </c>
       <c r="AA399" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AB399" s="23" t="n">
         <v>4</v>
       </c>
       <c r="AC399" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AD399" s="13"/>
       <c r="AE399" s="13" t="s">
@@ -55145,8 +55089,8 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="43" t="s">
-        <v>736</v>
+      <c r="A400" s="42" t="s">
+        <v>737</v>
       </c>
       <c r="B400" s="2" t="n">
         <v>34</v>
@@ -55187,7 +55131,7 @@
       <c r="N400" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O400" s="83" t="n">
+      <c r="O400" s="78" t="n">
         <v>192</v>
       </c>
       <c r="P400" s="6" t="n">
@@ -55216,7 +55160,7 @@
         <v>2</v>
       </c>
       <c r="AA400" s="11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AB400" s="12"/>
       <c r="AC400" s="12" t="s">
@@ -55258,18 +55202,18 @@
         <v>6521</v>
       </c>
       <c r="AU400" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV400" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW400" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="43" t="s">
-        <v>738</v>
+      <c r="A401" s="42" t="s">
+        <v>739</v>
       </c>
       <c r="B401" s="2" t="n">
         <v>255.49</v>
@@ -55385,18 +55329,18 @@
         <v>107699</v>
       </c>
       <c r="AU401" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV401" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW401" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="109" t="s">
-        <v>739</v>
+      <c r="A402" s="103" t="s">
+        <v>740</v>
       </c>
       <c r="B402" s="2" t="n">
         <v>1637.63</v>
@@ -55466,19 +55410,19 @@
         <v>1</v>
       </c>
       <c r="AA402" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AB402" s="23" t="n">
         <v>4</v>
       </c>
       <c r="AC402" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="AD402" s="41" t="n">
+        <v>741</v>
+      </c>
+      <c r="AD402" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE402" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF402" s="8"/>
       <c r="AG402" s="8" t="s">
@@ -55512,18 +55456,18 @@
         <v>1971505</v>
       </c>
       <c r="AU402" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV402" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW402" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="43" t="s">
-        <v>742</v>
+      <c r="A403" s="42" t="s">
+        <v>743</v>
       </c>
       <c r="B403" s="2" t="n">
         <v>705.2</v>
@@ -55564,7 +55508,7 @@
       <c r="N403" s="6" t="n">
         <v>184</v>
       </c>
-      <c r="O403" s="81" t="n">
+      <c r="O403" s="77" t="n">
         <v>340</v>
       </c>
       <c r="P403" s="1"/>
@@ -55597,13 +55541,13 @@
         <v>4</v>
       </c>
       <c r="AA403" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AB403" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC403" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AD403" s="13"/>
       <c r="AE403" s="13" t="s">
@@ -55641,18 +55585,18 @@
         <v>239460</v>
       </c>
       <c r="AU403" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV403" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW403" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="43" t="s">
-        <v>744</v>
+      <c r="A404" s="42" t="s">
+        <v>745</v>
       </c>
       <c r="B404" s="2" t="n">
         <v>1323.59</v>
@@ -55693,7 +55637,7 @@
       <c r="N404" s="6" t="n">
         <v>258</v>
       </c>
-      <c r="O404" s="110" t="n">
+      <c r="O404" s="104" t="n">
         <v>301</v>
       </c>
       <c r="P404" s="1"/>
@@ -55726,19 +55670,19 @@
         <v>2</v>
       </c>
       <c r="AA404" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AB404" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC404" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="AD404" s="41" t="n">
+        <v>685</v>
+      </c>
+      <c r="AD404" s="40" t="n">
         <v>5</v>
       </c>
       <c r="AE404" s="13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF404" s="8"/>
       <c r="AG404" s="8" t="s">
@@ -55772,18 +55716,18 @@
         <v>398968</v>
       </c>
       <c r="AU404" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV404" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW404" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="109" t="s">
-        <v>745</v>
+      <c r="A405" s="103" t="s">
+        <v>746</v>
       </c>
       <c r="B405" s="2" t="n">
         <v>1937.6</v>
@@ -55824,7 +55768,7 @@
       <c r="N405" s="6" t="n">
         <v>251</v>
       </c>
-      <c r="O405" s="111" t="n">
+      <c r="O405" s="105" t="n">
         <v>708</v>
       </c>
       <c r="P405" s="1"/>
@@ -55857,25 +55801,25 @@
         <v>2</v>
       </c>
       <c r="AA405" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AB405" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC405" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="AD405" s="41" t="n">
+        <v>719</v>
+      </c>
+      <c r="AD405" s="40" t="n">
         <v>3</v>
       </c>
       <c r="AE405" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF405" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AG405" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AH405" s="14"/>
       <c r="AI405" s="14" t="s">
@@ -55905,18 +55849,18 @@
         <v>1371782</v>
       </c>
       <c r="AU405" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV405" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW405" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="109" t="s">
-        <v>749</v>
+      <c r="A406" s="103" t="s">
+        <v>750</v>
       </c>
       <c r="B406" s="2" t="n">
         <v>593.54</v>
@@ -55990,13 +55934,13 @@
         <v>4</v>
       </c>
       <c r="AA406" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB406" s="23" t="n">
         <v>5</v>
       </c>
       <c r="AC406" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AD406" s="13"/>
       <c r="AE406" s="13" t="s">
@@ -56034,18 +55978,18 @@
         <v>623846</v>
       </c>
       <c r="AU406" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV406" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW406" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="109" t="s">
-        <v>750</v>
+      <c r="A407" s="103" t="s">
+        <v>751</v>
       </c>
       <c r="B407" s="2" t="n">
         <v>119.89</v>
@@ -56161,8 +56105,8 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="109" t="s">
-        <v>751</v>
+      <c r="A408" s="103" t="s">
+        <v>752</v>
       </c>
       <c r="B408" s="2" t="n">
         <v>655.92</v>
@@ -56236,19 +56180,19 @@
         <v>6</v>
       </c>
       <c r="AA408" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AB408" s="23" t="n">
         <v>3</v>
       </c>
       <c r="AC408" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="AD408" s="41" t="n">
+        <v>754</v>
+      </c>
+      <c r="AD408" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE408" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AF408" s="8"/>
       <c r="AG408" s="8" t="s">
@@ -56285,15 +56229,15 @@
         <v>523</v>
       </c>
       <c r="AV408" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW408" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="112" t="s">
-        <v>755</v>
+      <c r="A409" s="106" t="s">
+        <v>756</v>
       </c>
       <c r="B409" s="2" t="n">
         <v>72.84</v>
@@ -56334,7 +56278,7 @@
       <c r="N409" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O409" s="51" t="n">
+      <c r="O409" s="48" t="n">
         <v>33</v>
       </c>
       <c r="P409" s="1"/>
@@ -56367,7 +56311,7 @@
       <c r="AC409" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AD409" s="41" t="n">
+      <c r="AD409" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE409" s="13" t="s">
@@ -56407,7 +56351,7 @@
         <v>2372</v>
       </c>
       <c r="AU409" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV409" s="1"/>
       <c r="AW409" s="1" t="s">
@@ -56415,8 +56359,8 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="112" t="s">
-        <v>756</v>
+      <c r="A410" s="106" t="s">
+        <v>757</v>
       </c>
       <c r="B410" s="2" t="n">
         <v>171.11</v>
@@ -56526,7 +56470,7 @@
         <v>381569</v>
       </c>
       <c r="AU410" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV410" s="1"/>
       <c r="AW410" s="1" t="s">
@@ -56534,8 +56478,8 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="112" t="s">
-        <v>757</v>
+      <c r="A411" s="106" t="s">
+        <v>758</v>
       </c>
       <c r="B411" s="2" t="n">
         <v>229.72</v>
@@ -56613,7 +56557,7 @@
       <c r="AC411" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD411" s="41" t="n">
+      <c r="AD411" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE411" s="13" t="s">
@@ -56653,7 +56597,7 @@
         <v>99892</v>
       </c>
       <c r="AU411" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV411" s="1"/>
       <c r="AW411" s="1" t="s">
@@ -56661,8 +56605,8 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="112" t="s">
-        <v>758</v>
+      <c r="A412" s="106" t="s">
+        <v>759</v>
       </c>
       <c r="B412" s="2" t="n">
         <v>229.72</v>
@@ -56740,7 +56684,7 @@
       <c r="AC412" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD412" s="41" t="n">
+      <c r="AD412" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE412" s="13" t="s">
@@ -56786,8 +56730,8 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="112" t="s">
-        <v>759</v>
+      <c r="A413" s="106" t="s">
+        <v>760</v>
       </c>
       <c r="B413" s="2" t="n">
         <v>290.76</v>
@@ -56869,11 +56813,11 @@
       <c r="AC413" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD413" s="41" t="n">
+      <c r="AD413" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE413" s="13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF413" s="8"/>
       <c r="AG413" s="8" t="s">
@@ -56913,8 +56857,8 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="112" t="s">
-        <v>761</v>
+      <c r="A414" s="106" t="s">
+        <v>762</v>
       </c>
       <c r="B414" s="2" t="n">
         <v>310.35</v>
@@ -56988,7 +56932,7 @@
       <c r="AC414" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AD414" s="41" t="n">
+      <c r="AD414" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE414" s="13" t="s">
@@ -57032,8 +56976,8 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="112" t="s">
-        <v>762</v>
+      <c r="A415" s="106" t="s">
+        <v>763</v>
       </c>
       <c r="B415" s="2" t="n">
         <v>716.83</v>
@@ -57107,7 +57051,7 @@
         <v>4</v>
       </c>
       <c r="AA415" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AB415" s="23" t="n">
         <v>3</v>
@@ -57115,11 +57059,11 @@
       <c r="AC415" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="AD415" s="41" t="n">
+      <c r="AD415" s="40" t="n">
         <v>4</v>
       </c>
       <c r="AE415" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF415" s="8"/>
       <c r="AG415" s="8" t="s">
@@ -57159,8 +57103,8 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="113" t="s">
-        <v>764</v>
+      <c r="A416" s="107" t="s">
+        <v>765</v>
       </c>
       <c r="B416" s="2" t="n">
         <v>1002.77</v>
@@ -57234,25 +57178,25 @@
         <v>1</v>
       </c>
       <c r="AA416" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AB416" s="23" t="n">
         <v>2</v>
       </c>
       <c r="AC416" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="AD416" s="41" t="n">
+        <v>767</v>
+      </c>
+      <c r="AD416" s="40" t="n">
         <v>2</v>
       </c>
       <c r="AE416" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF416" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AG416" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AH416" s="14"/>
       <c r="AI416" s="14" t="s">
@@ -57282,18 +57226,18 @@
         <v>33</v>
       </c>
       <c r="AU416" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV416" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW416" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="113" t="s">
-        <v>769</v>
+      <c r="A417" s="107" t="s">
+        <v>770</v>
       </c>
       <c r="B417" s="2" t="n">
         <v>802.71</v>
@@ -57367,13 +57311,13 @@
         <v>4</v>
       </c>
       <c r="AA417" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AB417" s="23" t="n">
         <v>4</v>
       </c>
       <c r="AC417" s="12" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AD417" s="13"/>
       <c r="AE417" s="13" t="s">
@@ -57418,7 +57362,7 @@
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B418" s="2" t="n">
         <v>408.33</v>
@@ -57533,7 +57477,7 @@
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B419" s="2" t="n">
         <v>390</v>
@@ -57637,7 +57581,7 @@
       <c r="AS419" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT419" s="68" t="s">
+      <c r="AT419" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU419" s="1"/>
@@ -57762,7 +57706,7 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="39" t="s">
+      <c r="A421" s="38" t="s">
         <v>260</v>
       </c>
       <c r="B421" s="2" t="n">
@@ -57804,7 +57748,7 @@
       <c r="N421" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="O421" s="65" t="n">
+      <c r="O421" s="61" t="n">
         <v>23</v>
       </c>
       <c r="P421" s="6" t="n">
@@ -57849,7 +57793,7 @@
       <c r="AC421" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AD421" s="41" t="n">
+      <c r="AD421" s="40" t="n">
         <v>1</v>
       </c>
       <c r="AE421" s="13" t="s">
@@ -58337,7 +58281,7 @@
         <v>33</v>
       </c>
       <c r="AU425" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV425" s="1" t="s">
         <v>41</v>
@@ -58448,11 +58392,11 @@
       <c r="AS426" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT426" s="68" t="s">
+      <c r="AT426" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU426" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV426" s="1" t="s">
         <v>59</v>
@@ -58563,11 +58507,11 @@
       <c r="AS427" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT427" s="68" t="s">
+      <c r="AT427" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU427" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AV427" s="1" t="s">
         <v>59</v>
@@ -58904,7 +58848,7 @@
       <c r="AS430" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT430" s="68" t="s">
+      <c r="AT430" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU430" s="1" t="s">
@@ -59360,10 +59304,10 @@
         <v>33</v>
       </c>
       <c r="AU434" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV434" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW434" s="1" t="s">
         <v>36</v>
@@ -59471,7 +59415,7 @@
       <c r="AS435" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT435" s="68" t="s">
+      <c r="AT435" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU435" s="1" t="s">
@@ -59485,7 +59429,7 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="114"/>
+      <c r="A436" s="108"/>
       <c r="B436" s="2" t="n">
         <v>0</v>
       </c>
@@ -59590,7 +59534,7 @@
         <v>33</v>
       </c>
       <c r="AU436" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV436" s="1" t="s">
         <v>41</v>
@@ -59705,7 +59649,7 @@
         <v>33</v>
       </c>
       <c r="AU437" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV437" s="1" t="s">
         <v>41</v>
@@ -59816,7 +59760,7 @@
       <c r="AS438" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AT438" s="68" t="s">
+      <c r="AT438" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AU438" s="1" t="s">
@@ -60161,7 +60105,7 @@
         <v>33</v>
       </c>
       <c r="AU441" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV441" s="1" t="s">
         <v>41</v>
@@ -60276,7 +60220,7 @@
         <v>33</v>
       </c>
       <c r="AU442" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AV442" s="1" t="s">
         <v>41</v>
